--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,22 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niuitmo-my.sharepoint.com/personal/468114_niuitmo_ru/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16900ECF-8700-4CAD-A84C-B07A52D963A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="17100" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
     <sheet name="routes" sheetId="2" r:id="rId2"/>
     <sheet name="relations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="572">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +56,9 @@
   </si>
   <si>
     <t>photo</t>
+  </si>
+  <si>
+    <t>photo_2</t>
   </si>
   <si>
     <t>Летний сад</t>
@@ -49,6 +74,12 @@
 В Летнем саду были высажены редкие деревья и кустарники, привезённые из разных стран. Здесь были созданы оранжереи, где выращивались экзотические растения. Сад украшали мраморные статуи, изображавшие античных богов и героев. В XVIII веке Летний сад стал центром светской жизни Петербурга. Здесь проводились ассамблеи, балы, маскарады и фейерверки. В саду находились Летний дворец Петра I, галереи для скульптур, гроты и павильоны. Летний сад был любимым местом прогулок императрицы Екатерины II, которая повелела установить здесь новые статуи и фонтаны. В XIX веке Летний сад стал общедоступным парком, сохранив при этом свой исторический облик и атмосферу. В советское время сад был переименован в Сад имени Памяти жертв революции, но после распада СССР ему было возвращено историческое название.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/1/b/f/1bfsce1vzpn9lybrxq.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/9/e/7/9e77f485da3041730b7b1ca870fccf66.jpg</t>
+  </si>
+  <si>
     <t>Храм Воскресения Христова Спас на Крови</t>
   </si>
   <si>
@@ -62,6 +93,12 @@
 Строительство храма продолжалось 24 года и было завершено в 1907 году. Архитектором проекта был Альфред Парланд, который предложил построить храм в русском стиле, напоминая о древнерусских церквях и соборах. Спас на Крови поражает своим красочным и нарядным обликом. Фасады храма украшены мозаиками, изразцами, эмалями и позолотой. Внутреннее убранство храма представляет собой уникальную коллекцию мозаик, выполненных по эскизам известных русских художников. Мозаики занимают площадь более 7000 квадратных метров и изображают библейские сюжеты, портреты святых и сцены из русской истории. В советское время храм был закрыт и использовался как складское помещение. В 1997 году Спас на Крови был открыт для посещения как музей.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/a/e/f/aef705db5d286187a5fbf1a6c249d7cf.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/k/d/u/kduq7hvah0nmg8daq2.jpg</t>
+  </si>
+  <si>
     <t>Русский музей, Михайловский замок</t>
   </si>
   <si>
@@ -75,6 +112,12 @@
 Михайловский замок окружен рвом с водой и подъемными мостами, что делало его похожим на средневековую крепость. В замке находились многочисленные спальни, кабинеты, залы для приемов, картинная галерея и церковь. Павел I, опасаясь за свою жизнь, проводил в замке большую часть времени. Однако его страхи оказались не напрасными: вскоре после переезда в замок Павел I был убит заговорщиками в собственной спальне. После смерти Павла I замок был заброшен и постепенно пришел в запустение. В XIX веке замок был передан Инженерному ведомству и использовался как Инженерное училище. В советское время в замке размещались различные учреждения. В 1991 году Михайловский замок был передан Русскому музею и открыт для посещения как музей. В настоящее время в замке размещается коллекция русского искусства XVIII-XIX веков.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/x/t/6/xt69qad79mzp4dncpw.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/y/0/l/y0l1kvxqv5l27uagre.jpg</t>
+  </si>
+  <si>
     <t>Русский музей, Мраморный дворец</t>
   </si>
   <si>
@@ -88,6 +131,12 @@
 Мраморный дворец стал одним из первых зданий в Петербурге, выполненных в стиле классицизма. Архитектором проекта был Антонио Ринальди, который создал величественное и гармоничное сооружение. После смерти Орлова дворец сменил несколько владельцев, пока не был приобретен императорской семьей. В XIX веке во дворце размещался Константин Николаевич, брат императора Александра II. В советское время во дворце находились различные учреждения. В 1992 году Мраморный дворец был передан Русскому музею и открыт для посещения как музей. В настоящее время в дворце размещается коллекция зарубежного искусства и выставки современного искусства.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/1/4/j/14j6xc2kehjkfwzomt.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/4/6/0/460361caec76fbeecc71223f46e7291a.jpg</t>
+  </si>
+  <si>
     <t>Государственный Эрмитаж</t>
   </si>
   <si>
@@ -101,6 +150,12 @@
 Музей располагался в Зимнем дворце и был доступен лишь избранным. В XIX веке Эрмитаж был открыт для публики и стал одним из центров культурной жизни Петербурга. В советское время Эрмитаж был национализирован и стал государственным музеем. В настоящее время Эрмитаж занимает несколько зданий, включая Зимний дворец, Малый Эрмитаж, Большой Эрмитаж, Новый Эрмитаж и Зимний дворец Петра I. В коллекции музея представлены произведения искусства разных эпох и народов, от Древнего Египта до современности. Эрмитаж является одним из самых посещаемых музеев мира.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/x/s/o/xsoidn4bzm349r6sky.png</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/f/9/5/f952efda5e861a8e37ea88960944a42c.jpg</t>
+  </si>
+  <si>
     <t>Дом Зингер</t>
   </si>
   <si>
@@ -114,6 +169,12 @@
 Строительство дома Зингер вызвало много споров в обществе, так как здание нарушало архитектурный облик Невского проспекта. Однако со временем дом Зингер стал одним из символов города. После революции в здании разместился Дом Книги, который существует и по сей день. Дом Книги является одним из крупнейших книжных магазинов Санкт-Петербурга и местом встреч писателей, поэтов и читателей.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/0/c/2/0c27094221483307ad5164f8c81f8373.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/g/d/8/gd86576t16dk8n65ip.jpg</t>
+  </si>
+  <si>
     <t>Медный всадник</t>
   </si>
   <si>
@@ -127,6 +188,12 @@
 Скульптура отлита из бронзы и установлена на огромном гранитном камне, который был доставлен из окрестностей Лахты. Доставка камня была сложной инженерной задачей, которую удалось решить благодаря усилиям русских мастеров. Открытие памятника состоялось в 1782 году и стало важным событием в жизни города. Медный всадник запечатлен в поэме Александра Пушкина, что сделало его еще более известным и значимым. Памятник является символом Санкт-Петербурга и напоминает о великих свершениях Петра I.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/r/1/6/r16mbh4ytzdlf8tx28.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/e/y/4/ey4fbv2uor0hgfc6ym.png</t>
+  </si>
+  <si>
     <t>Исаакиевский собор</t>
   </si>
   <si>
@@ -140,6 +207,12 @@
 Исаакиевский собор поражает своим масштабом, богатым убранством и использованием различных видов мрамора и полудрагоценных камней. Фасад собора украшают колонны, скульптуры и барельефы. Внутреннее убранство собора украшено мозаиками, живописью и позолотой. Поднявшись на колоннаду собора, можно увидеть панораму Санкт-Петербурга. В советское время в соборе располагался музей, а в настоящее время в нем проводятся богослужения и экскурсии.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/o/3/z/o3z6xxvdep6i9gnt6f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/0/c/6/0c6ogzu9iwm308ygg2.jpg</t>
+  </si>
+  <si>
     <t>Юсуповский дворец</t>
   </si>
   <si>
@@ -153,6 +226,12 @@
 Юсуповский дворец был построен в XVIII веке и неоднократно перестраивался. В XIX веке дворец приобрел свой нынешний облик. Внутреннее убранство дворца поражает своим богатством и изысканностью. Здесь можно увидеть мебель из ценных пород дерева, картины известных художников, скульптуры, фарфор и другие предметы искусства. В настоящее время во дворце проводятся экскурсии, концерты и театральные представления.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/8/0/c/80ct96lep19c7ty184.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/2/d/b/2dbf436e14756fb8d60db5c3417378cd.jpg</t>
+  </si>
+  <si>
     <t>Новая Голландия</t>
   </si>
   <si>
@@ -163,6 +242,12 @@
 В советское время на острове располагались военные объекты. В 2011 году началась масштабная реконструкция Новой Голландии, превратившая ее в современное общественное пространство с парком, арт-галереями, ресторанами и магазинами. Новая Голландия стала популярным местом отдыха для петербуржцев и гостей города.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/6/v/v/6vv62i91oywzupb7ih.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/q/o/a/qoayebq5sflp37zxn9.jpg</t>
+  </si>
+  <si>
     <t>Музей антропологии и этнографии имени Петра Великого Российской академии наук</t>
   </si>
   <si>
@@ -176,6 +261,12 @@
 Кунсткамера стала первым музеем в России, открытым для посещения публики. Пётр I лично проводил экскурсии по музею и рассказывал посетителям о экспонатах. В советское время музей был переименован в Музей антропологии и этнографии имени Петра Великого. В настоящее время музей является одним из самых посещаемых музеев Санкт-Петербурга.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/a/2/c/a2c071535c658179554553cba5d42e28.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/a/m/h/amhi33rf6a0f5egno5.jpg</t>
+  </si>
+  <si>
     <t>Стрелка Васильевского острова</t>
   </si>
   <si>
@@ -189,6 +280,12 @@
 Архитектурный ансамбль Стрелки Васильевского острова включает в себя здание Биржи, Ростральные колонны, здание Двенадцати коллегий и другие исторические постройки. Ростральные колонны, украшенные скульптурами, символизируют мощь российского флота. Стрелка Васильевского острова является популярным местом для прогулок и фотосессий.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/u/j/f/ujfodsyrmko3640sl3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/v/e/i/vei08ffb9swc6ltq8n.jpg</t>
+  </si>
+  <si>
     <t>Литературный музей института русской литературы РАН</t>
   </si>
   <si>
@@ -202,6 +299,12 @@
 Собрание Пушкинского Дома включает в себя уникальные документы, отражающие все этапы развития русской литературы, начиная с древнейших времен и заканчивая современностью. Здесь хранятся автографы Пушкина, Лермонтова, Гоголя, Достоевского, Толстого, Чехова и многих других классиков, а также их письма, дневники, фотографии и личные вещи. Фонды музея постоянно пополняются благодаря работе ученых-литературоведов, которые разыскивают и приобретают новые материалы, связанные с русской литературой.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/h/0/v/h0vt6ufokrmd6wnc73.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/j/s/a/jsa0d1nvy5dft6naje.jpg</t>
+  </si>
+  <si>
     <t>Музей оптики Университета ИТМО</t>
   </si>
   <si>
@@ -215,6 +318,12 @@
 В экспозиции музея представлены старинные оптические приборы, демонстрирующие, как развивались представления о свете и зрении, а также современные лазерные установки, голограммы и оптические иллюзии. Музей проводит экскурсии и лекции для школьников, студентов и всех желающих узнать больше об оптике и ее применении в различных областях науки и техники.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/b/0/8/b08f645afb9921e740dbe3da8ebfe2b7.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/q/x/p/qxphybhg5o6rr6g4ja.jpg</t>
+  </si>
+  <si>
     <t>Церковь Святой Великомученицы Екатерины</t>
   </si>
   <si>
@@ -228,6 +337,12 @@
 В XVIII-XIX веках церковь была центром католической жизни Петербурга, здесь проходили богослужения, концерты духовной музыки и другие мероприятия. Храм посещали известные исторические личности, в том числе члены императорской семьи. В советское время церковь была закрыта и подверглась разорению, но в 1990-е годы была возвращена католической общине и восстановлена.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/e/a/4/ea4918a7f23db0b9078cd1610b05900e.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/0/5/e/05ekoe1hqvs8pwzmnj.jpg</t>
+  </si>
+  <si>
     <t>Князь-Владимирский собор</t>
   </si>
   <si>
@@ -241,6 +356,12 @@
 Собор был свидетелем многих важных событий в истории города, в том числе торжественных богослужений, посвященных победам русской армии, и траурных церемоний, связанных с кончиной членов императорской семьи. В советское время собор был закрыт и использовался в качестве складского помещения, но в 1990 году был возвращен Русской Православной Церкви и вновь стал местом молитвы и духовного утешения для верующих.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/5/8/u/58ulwuh9q8xzkg3l2m.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/h/7/a/h7acypzuzeeifuy7x4.jpg</t>
+  </si>
+  <si>
     <t>Ленинградский зоопарк</t>
   </si>
   <si>
@@ -252,6 +373,12 @@
   <si>
     <t>Ленинградский зоопарк – старейший зоопарк России, основанный в 1865 году. За долгие годы своего существования он пережил множество драматических событий, в том числе революции, войны и блокаду Ленинграда. В годы Великой Отечественной войны зоопарк продолжал работать, несмотря на голод, холод и бомбежки.
 Сотрудники зоопарка, рискуя своей жизнью, спасали животных от гибели. Многие животные погибли, но те, кто выжил, стали символом стойкости и мужества ленинградцев. После войны зоопарк был восстановлен и вновь открыт для посещения. Сегодня он является одним из самых популярных мест отдыха в Санкт-Петербурге.</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/1/x/g/1xgejo787j1l1vdqzg.jpg?s=38fae04324</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/b/3/3/b33ddbd77bf424db56fa95a617dfb0d1.jpg</t>
   </si>
   <si>
     <t>Петропавловская крепость</t>
@@ -269,6 +396,12 @@
 На территории крепости также расположены другие исторические постройки: Монетный двор, где чеканились российские монеты, Ботный дом, где хранится ботик Петра I, Инженерный дом, Комендантский дом, Гауптвахта и другие сооружения. С Петропавловской крепости каждый день в полдень производится выстрел из пушки, эта традиция была заведена ещё Петром I и служила сигналом для жителей города.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/3/1/0/3104b20af48b30b6e33ca7224392e640.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/d/r/f/drf1sgogefiq45rhzg.jpg</t>
+  </si>
+  <si>
     <t>Военно-исторический музей артиллерии, инженерных войск и войск связи</t>
   </si>
   <si>
@@ -282,6 +415,12 @@
 В течение XVIII-XIX веков коллекция Цейхгауза постоянно пополнялась, и в 1869 году он был преобразован в Артиллерийский музей. Сегодня музей располагает уникальными экспонатами, отражающими историю развития русской армии, начиная со средневековья и заканчивая современностью. Здесь можно увидеть артиллерийские орудия, участвовавшие в исторических сражениях, образцы военной техники, использовавшиеся в разные периоды истории, а также знамена, мундиры, награды и личные вещи выдающихся военачальников.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/4/z/0/4z0xart7ii43s5g83b.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/c/z/4/cz4ywgx1sek2nkzjdm.png</t>
+  </si>
+  <si>
     <t>Соборная мечеть</t>
   </si>
   <si>
@@ -295,6 +434,12 @@
 Мечеть была открыта в 1913 году и стала символом толерантности и уважения к различным религиям в многонациональной Российской империи. В советское время мечеть была закрыта, но в 1990-е годы была возвращена мусульманской общине и вновь стала местом молитвы и духовного общения для мусульман Санкт-Петербурга.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/y/l/g/ylgiidif61yq14d2hk.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/8/o/0/8o02mz1rwt2y6om69w.jpg</t>
+  </si>
+  <si>
     <t>Крейсер Аврора</t>
   </si>
   <si>
@@ -306,6 +451,12 @@
   <si>
     <t>Крейсер "Аврора" – легендарный корабль, сыгравший важную роль в истории России. Спущенный на воду в 1900 году, крейсер принимал участие в Русско-японской войне и Первой мировой войне. В 1917 году "Аврора" стала участником Октябрьской революции, произведя холостой выстрел, который послужил сигналом к штурму Зимнего дворца.
 После революции крейсер был превращен в учебное судно, а затем в корабль-музей. "Аврора" стала одним из самых известных символов советской эпохи и привлекала множество посетителей, желавших узнать больше о ее истории. В настоящее время крейсер находится на вечной стоянке на Петровской набережной и является одним из самых популярных туристических объектов Санкт-Петербурга.</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/o/6/n/o6nsndxz21d2ufawu6.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/i/n/f/infmkpyh1kztjay4kt.jpg</t>
   </si>
   <si>
     <t>Квартира Тургенева</t>
@@ -332,6 +483,12 @@
 Забвенью брошенный дворец…"</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/s/o/y/soybupzb9oxh4ocyqo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/b/1/4/b14oiu34ivl3j8zaxb.png</t>
+  </si>
+  <si>
     <t>59.947112, 30.333932</t>
   </si>
   <si>
@@ -365,6 +522,12 @@
 Таким образом, литературный салон Авдотьи Голицыной стал важным культурным центром, где переплетались судьбы и идеи крупнейших представителей русской литературы XIX века, а сама княгиня осталась в истории как одна из самых ярких и загадочных фигур петербургского светского общества.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/e/0/9/e09ngg8wvcly161203.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/n/r/b/nrb12ra6ktw0la77kh.jpg</t>
+  </si>
+  <si>
     <t>Музей-квартира Пушкина</t>
   </si>
   <si>
@@ -381,6 +544,12 @@
 Кроме того, в здании находится выставка, посвящённая жизни и творчеству Пушкина, где можно увидеть портреты современников, виды Петербурга XIX века и документы, связанные с историей поэта. Музей-квартира на Мойке - важное место памяти, отражающее трагическую страницу в судьбе Пушкина и сохраняющее дух эпохи Золотого века русской литературы.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/0/0/1/001d9454f3dbed3ed3152af5d074a3ed.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/6/q/j/6qjxnhxh1ehjkdkfnk.jpg</t>
+  </si>
+  <si>
     <t>Демутов трактир</t>
   </si>
   <si>
@@ -394,6 +563,9 @@
     <t>Во времена Пушкина Демутов трактир был одной из самых известных и престижных гостиниц Петербурга. Именно здесь молодой Александр Сергеевич, приехавший в столицу для учёбы в Царскосельском лицее, жил вместе со своим дядей. В трактире сдавались комнаты на любой вкус и бюджет, что делало его популярным среди разных слоёв общества.
 В этом доме останавливались такие выдающиеся личности, как философ Пётр Чаадаев, драматург Александр Грибоедов и писатель Иван Тургенев. Пушкин же часто возвращался сюда и именно под крышей Демутова написал поэму «Полтава», а также работал над романом в стихах «Евгений Онегин» и другими произведениями. Это место стало для поэта важным творческим центром, где он находил вдохновение и уединение для работы.
 Демутов трактир был не только гостиницей, но и своеобразной литературной обителью, связанной с началом и развитием творческого пути одного из величайших русских поэтов.</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/y/g/c/ygcvt70htmx65frx1e.jpg</t>
   </si>
   <si>
     <t>Дом Лавалей</t>
@@ -412,6 +584,9 @@
 Сегодня Дом Лаваль - объект культурного наследия федерального значения, напоминающий о золотом веке русской литературы и о роли, которую играл Пушкин в культурной жизни Петербурга.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/3/d/6/3d6c8f5cec58d37be87bf77fbbf5040f.jpg</t>
+  </si>
+  <si>
     <t>Коллегия иностранных дел</t>
   </si>
   <si>
@@ -426,6 +601,9 @@
 Пушкин привлекал внимание своим необычным для официального учреждения обликом - широкополой шляпой и широким фраком, что выделяло его среди чиновников. В этом здании работали также такие выдающиеся деятели, как драматург Александр Грибоедов и поэт Фёдор Тютчев.
 Коллегия иностранных дел была образована в 1718 году и управляла внешними связями России до преобразования в Министерство иностранных дел в 1802 году. До 1832 года именно здесь размещался этот важный государственный орган, после чего здание заняла Императорская военная академия.
 Коллегия иностранных дел - место, связанное с началом профессиональной жизни Пушкина и другими выдающимися деятелями русской культуры и политики, отражающее атмосферу Петербурга начала XIX века.</t>
+  </si>
+  <si>
+    <t>https://lh5.googleusercontent.com/proxy/XL7VL_QCC8k7uIx1LCwkoU5NpiSciF70f4K4vzS2-zhrw_OvdEM4p9H8lnZt7La3taIpr6NBdyzmAdiYCqGtNqlt1uTDwZNKzfOTVsAzkGd9BLs</t>
   </si>
   <si>
     <t>Здание Петербургской консерватории</t>
@@ -450,6 +628,12 @@
 В 1886 году театр был перестроен и стал основой для создания Петербургской консерватории, сохранившей историческую связь с культурной жизнью города и наследием пушкинской эпохи.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/e/0/7/e07bc24720ac0542e8652dbee40d0c5f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/y/c/3/yc3vzfs44i5yhu9o3h.jpg</t>
+  </si>
+  <si>
     <t>"Зелёная лампа"</t>
   </si>
   <si>
@@ -468,6 +652,9 @@
 Кипишь ли ты, златая чаша,
 В руках веселых остряков?..»
 Общество прекратило свою деятельность осенью 1820 года после усиления полицейского контроля, но его влияние на культурную и политическую жизнь Петербурга того времени было значительным. «Зелёная лампа» стала символом молодёжного порыва и стремления к переменам в эпоху, предшествовавшую декабристскому движению.</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/s/t/w/stwfacmcvahapoi212.jpg</t>
   </si>
   <si>
     <t>Дом купца Брагина</t>
@@ -491,6 +678,12 @@
 Дом на Крюковом канале сохранил черты петербургской архитектуры начала XIX века и напоминает о тех культурных связях и дружбе, которые оказали огромное влияние на развитие русской литературы.</t>
   </si>
   <si>
+    <t>https://sun9-69.userapi.com/impg/L82izKh1WeHpeNzlCZQC6CdSmPnYFITw9sUNhg/ewVya7MRm1Q.jpg?size=1206x790&amp;quality=95&amp;sign=0f11fe5dc0d4a122795c1597470d4372&amp;type=album</t>
+  </si>
+  <si>
+    <t>https://happyhouse.guru/uploads/posts/2023-03/thumbs/1678571279_happyhouse-guru-p-interer-komnati-soni-marmeladovoi-krasivo-48.jpg</t>
+  </si>
+  <si>
     <t>Дом в Коломне</t>
   </si>
   <si>
@@ -510,6 +703,9 @@
 Дом в Коломне был частью повседневной жизни поэта, здесь он создавал первые значимые произведения и ощущал связь с родным городом. Несмотря на то, что район считался окраиной, именно в этих стенах зарождалась его литературная судьба. Сегодня дом перестроен и функционирует как гостиница, а на его фасаде установлена мемориальная доска, напоминающая о значении этого места в жизни великого русского поэта.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/e/h/a/eharltkwu09gu4w815.png</t>
+  </si>
+  <si>
     <t>Место последней дуэли Пушкина (дополнительная локация)</t>
   </si>
   <si>
@@ -524,6 +720,12 @@
 Посещение этого места - возможность почтить память Пушкина, задуматься о его наследии и трагической судьбе, а также осознать цену свободы и творчества.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/8/7/e/87e573886806db74ca6d17b8e4f83bac.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/m/u/u/muua9ceujh8pxh5mw2.jpg</t>
+  </si>
+  <si>
     <t>Величественный дворцовый комплекс, где располагалось Инженерное училище, в котором учился Ф.М. Достоевский. Сегодня - один из крупнейших музеев русского искусства, представляющий широкий спектр произведений.</t>
   </si>
   <si>
@@ -546,6 +748,12 @@
 Именно в этой кондитерской, согласно роману «Преступление и наказание», Раскольников и Разумихин договариваются о встрече с Порфирием Петровичем. Сегодня в здании по-прежнему располагаются различные магазины и кафе, но атмосфера прошлого, связанная с именами Достоевского и его героев, ощущается здесь особенно остро.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/p/9/k/p9k8hc8tuk86tnvqqr.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ad/Wolf_et_Beranget_Confectionery.jpg/250px-Wolf_et_Beranget_Confectionery.jpg</t>
+  </si>
+  <si>
     <t>Дом купца Шиля</t>
   </si>
   <si>
@@ -560,6 +768,12 @@
 Исторические источники свидетельствуют, что район Сенной площади в XIX веке был одним из самых криминогенных в Петербурге. Здесь находились многочисленные трактиры, притоны и публичные дома, а жизнь местных обитателей была полна лишений и страданий. Прогуливаясь по этим местам, можно представить себе, в каких условиях жила Соня Мармеладова и другие герои Достоевского.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/2/y/t/2ytmsr27tl3m43s8b9.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/a/m/q/amqrb1a2lezuajtsn3.jpg</t>
+  </si>
+  <si>
     <t>Дом Раскольникова</t>
   </si>
   <si>
@@ -574,6 +788,12 @@
 Считается, что именно в этом доме, в небольшой квартире под самой крышей, жил студент Родион Раскольников, вынашивавший свои мрачные планы. В настоящее время в доме проживают обычные петербуржцы, но многие туристы специально приезжают сюда, чтобы увидеть дом Раскольникова и ощутить атмосферу романа Достоевского.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/i/x/q/ixqv0t3aqyfy1s1n7w.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/6/i/3/6i33782uv4e26qh8gj.jpg</t>
+  </si>
+  <si>
     <t>Дом купца Алонкина</t>
   </si>
   <si>
@@ -588,6 +808,12 @@
 В доходных домах, с их многочисленными квартирами, лестницами и дворами, переплетались судьбы разных людей, формировались сложные социальные отношения, возникали конфликты и трагедии. Достоевский мастерски изображал жизнь этих домов, показывая всю сложность и противоречивость петербургского общества.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/i/l/1/il1ei29d7bzx2x898r.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/1/y/k/1yk6gr7unaava5ey6x.jpg</t>
+  </si>
+  <si>
     <t>Казенная палата - Дом Сони Мармеладовой</t>
   </si>
   <si>
@@ -602,6 +828,12 @@
 Соня, чтобы прокормить своих близких, вынуждена была пойти на панель. Этот ее выбор, совершенный из сострадания и отчаяния, стал одним из ключевых моментов в романе "Преступление и наказание". Достоевский с огромной силой и проникновенностью описывает страдания Сони, ее душевную чистоту и способность к самопожертвованию.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/4/e/5/4e53bb4c3cbf3218cedef1e94b2615d7.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/4/f/f/4ff7313cfb1819066561048a0ad387e6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дом старухи-процентщицы Алены Ивановны </t>
   </si>
   <si>
@@ -616,6 +848,12 @@
 Алена Ивановна, по замыслу Достоевского, является воплощением зла и алчности. Она безжалостно эксплуатирует своих клиентов, высасывая из них последние соки. Убийство старухи-процентщицы Раскольниковым – это не просто уголовное преступление, но и бунт против социальной несправедливости и безнравственности.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/g/7/h/g7ho7iv2gbhtk1l3yq.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/k/y/3/ky3ypqawvan91lk94t.jpg</t>
+  </si>
+  <si>
     <t>Пионерская площадь</t>
   </si>
   <si>
@@ -630,6 +868,12 @@
 В своих произведениях Достоевский не раз упоминает театр и его значение для петербургского общества. Театральные сцены, по его мнению, являлись отражением социальных и нравственных проблем того времени. Сегодня Пионерская площадь продолжает оставаться местом проведения культурных мероприятий, но память о театральном прошлом этого места сохраняется в архитектуре окружающих зданий и в сердцах петербуржцев.</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/B_pokrovsky_kazn_1849.jpg/330px-B_pokrovsky_kazn_1849.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/q/4/f/q4fn3dsshrpx15syd2.jpg</t>
+  </si>
+  <si>
     <t>Памятник Ф.М. Достоевскомк</t>
   </si>
   <si>
@@ -644,6 +888,12 @@
 Памятник расположен недалеко от Владимирского собора, который Достоевский часто посещал, и Литературно-мемориального музея писателя. Это место стало своеобразным центром притяжения для поклонников творчества Достоевского, которые приходят сюда, чтобы отдать дань памяти великому писателю, поразмышлять о его идеях и перечитать его бессмертные произведения. Памятник Достоевскому является не только произведением искусства, но и символом Петербурга как литературной столицы России.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/e/1/3/e13a0253ea35d9315247b7c4e327170f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/6/6/2/66205146527892971727d17e7da73da4.jpg</t>
+  </si>
+  <si>
     <t>Литературно-мемориальный музей Ф.М.Достоевского</t>
   </si>
   <si>
@@ -658,6 +908,12 @@
 Музей был открыт в 1971 году, к 150-летию со дня рождения писателя. В экспозицию музея входят мемориальные комнаты, в которых воссоздана обстановка, в которой жил и работал Достоевский. Здесь можно увидеть личные вещи писателя, его рукописи, фотографии, книги, а также узнать много интересного о его жизни, творчестве и философских взглядах.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/i/h/d/ihd4xbpy61bt3adp8p.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/9/f/s/9fsgs1g2bqtjyxz4mg.jpg</t>
+  </si>
+  <si>
     <t>Дом Пряничникова</t>
   </si>
   <si>
@@ -672,6 +928,12 @@
 Доходные дома были своеобразным микрокосмом петербургского общества, отражавшим его социальную структуру и моральные проблемы. В этих домах разворачивались драмы, кипели страсти, зарождались конфликты и рушились надежды. Достоевский мастерски изображал жизнь в доходных домах, создавая яркие и запоминающиеся образы петербургских обитателей.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/0/k/q/0kq2dp14xafye7tk6v.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/8/v/v/8vvi0yy0w21pl5vlot.jpg</t>
+  </si>
+  <si>
     <t>Ресторан посвященный Ф.М.Достоевскому</t>
   </si>
   <si>
@@ -686,7 +948,16 @@
 Посещение ресторана, посвященного Ф.М. Достоевскому, это возможность не только отведать изысканные блюда русской кухни, но и прикоснуться к литературному наследию великого писателя, а также ощутить атмосферу Петербурга, который был его источником вдохновения.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/x/d/e/xdepgx2c8uaui3xj3e.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/h/8/b/h8bhl1c7taep86tqw6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ул.Гороховая, 46</t>
+  </si>
+  <si>
+    <t>59.926684, 30.325067</t>
   </si>
   <si>
     <t>Этот дом стал одним из первых мест, где молодой Николай Васильевич Гоголь начал свою жизнь в Петербурге. Здесь он наблюдал за бурной городской жизнью, которая позже вдохновила его на создание знаменитых «Петербургских повестей». Улицы, дома и люди вокруг стали живым материалом для его сатирических и мистических рассказов, отражающих контрасты и противоречия столицы XIX века.</t>
@@ -697,7 +968,13 @@
 Именно здесь, Гоголь вынашивал замыслы своих "Петербургских повестей", в которых с такой беспощадной правдивостью и сатирическим гротеском изобразил жизнь столичных чиновников, бедных художников и мечтателей. Прогуливаясь по Гороховой улице, можно почувствовать атмосферу Петербурга времён Гоголя, города контрастов, где переплетались роскошь и нищета, высокие идеалы и низменные страсти.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/8/f/1/8f17a9091b15e447c7ece457bb0f3216.jpg</t>
+  </si>
+  <si>
     <t>Дом где Николай Васильевич проживал с 1829 по 1832 гг</t>
+  </si>
+  <si>
+    <t>59.926327, 30.314027</t>
   </si>
   <si>
     <t>В этой квартире Гоголь провёл важный этап своего творчества и личной жизни. Именно здесь он знакомился с литературной средой Петербурга, посещал театры и писал первые наброски своих произведений. Эти годы стали временем формирования его уникального стиля, в котором сочетались глубокий психологизм и гротеск.</t>
@@ -707,7 +984,13 @@
 Стоит отметить, что на канале Грибоедова Гоголь жил ещё в конце 1828 года в доходном доме Трута, расположенного по тогдашнему адресу — набережная Екатерининского канала, 72. При желании можно заскочить и глянуть на этот дом, который находится всего в 4 минутах ходьбы от предыдущего пункта нашего маршрута. В доме № 72 на набережной канала нынешнего Грибоедова Николай Васильевич также проживал сразу же по приезду в Санкт-Петербург.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/e/m/u/emuecs2srw9mnqyvn9.png</t>
+  </si>
+  <si>
     <t>Дом аптекаря Трута</t>
+  </si>
+  <si>
+    <t>59.925728, 30.311538</t>
   </si>
   <si>
     <t>Дом аптекаря Трута вошёл в литературную историю благодаря повести «Нос», одному из самых абсурдных и сатирических произведений Гоголя. Здесь, по сюжету, цирюльник находит нос коллежского асессора в буханке хлеба, что символизирует нелепость и бюрократическое безумие петербургской жизни. Этот эпизод стал классикой русской литературы и отражением гротескного взгляда автора на общество.</t>
@@ -718,7 +1001,16 @@
 Дом аптекаря Трута, возможно, и не сохранился до наших дней, но сам образ аптеки, как места, где можно найти лекарство от любой болезни, в том числе и от потери носа, прочно закрепился в гоголевском Петербурге. Повесть «Нос», написанная в 1836 году, стала одним из самых смелых и новаторских произведений Гоголя, в котором он высмеял чинопочитание, тщеславие и духовную опустошённость современного общества. Здание перестраивалось, первоначальный вид дома не сохранился, но совсем недалеко под №79 находится Дом Мюссара, в котором во времена Гоголя располагалась гостиница «Неаполь». Именно в ней в июне 1829 года молодой писатель снял номер на сутки, чтобы сжечь весь тираж своей первой поэмы «Ганц Кюхельгартен», на которую получил плохие отзывы критиков.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/f/b/g/fbg3b60s2wzwbrnqpj.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/t/k/o/tkolxtup7kop2fferp.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Нос" майора Ковалева</t>
+  </si>
+  <si>
+    <t>59.924745, 30.308385</t>
   </si>
   <si>
     <t>Литературная локация, связанная с приключениями носа майора Ковалёва. Яркая сатира на чиновничество и петербургские нравы.</t>
@@ -729,7 +1021,16 @@
 Гоголь с беспощадным юмором показывает, как чиновники озабочены только своей карьерой, своим внешним видом и тем, что о них подумают другие. История Ковалёва – это гротескное зеркало, в котором отражаются пороки общества, погрязшего в чинопочитании и тщеславии. Место действия повести, будь то Невский проспект, Казанский собор или редакция газеты, становится символом петербургской суеты, где в погоне за успехом люди теряют свою человеческую сущность.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/g/j/a/gja5javlxdxtbxiozg.jpg</t>
+  </si>
+  <si>
+    <t>https://peterburg.center/sites/default/files/styles/long_image/public/nos.jpg?itok=agVL3taH</t>
+  </si>
+  <si>
     <t>Дом Николая Васильевича Гоголя в период с апреля по июль 1829 года</t>
+  </si>
+  <si>
+    <t>59.929100, 30.310227</t>
   </si>
   <si>
     <t>Квартира, где Гоголь провёл несколько месяцев, только приехав в Петербург. Здесь он искал вдохновение и начинал свой путь писателя.</t>
@@ -742,7 +1043,13 @@
 Гоголь Н. В. - Гоголь М. И., 30 апреля 1829 г.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/c/b/r/cbrt41d3f9bq0b9vhd.jpg</t>
+  </si>
+  <si>
     <t>Доходный дом Брунста</t>
+  </si>
+  <si>
+    <t>59.928952, 30.307235</t>
   </si>
   <si>
     <t>Типичный доходный дом Петербурга XIX века, в подобных домах жили и работали герои многих гоголевских повестей. Здесь, среди коммунальных квартир и длинных коридоров, разворачивались драмы "маленьких людей", чьи судьбы так волновали писателя. Дом отражает атмосферу городской жизни и социального неравенства эпохи.</t>
@@ -758,7 +1065,16 @@
 </t>
   </si>
   <si>
+    <t>https://cdn.tretyakov.ru/mytretyakov/107/b04c936b9fc99f4ae3945f9739ef82f1/thumb/02f8eb0e5578b38e37b4e1ea0368b0e2_x1.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tretyakov.ru/mytretyakov/109/c7862cf2626e7663dba650eaa3dcc565/thumb/ea91fe77f8c2bacc9caedc0ed611e024_x1.jpg</t>
+  </si>
+  <si>
     <t>Малая Морская улица, 17</t>
+  </si>
+  <si>
+    <t>59.935051, 30.310613</t>
   </si>
   <si>
     <t>Адрес, связанный с повестью «Портрет». Здесь, по сюжету, художник Чартков приобретает загадочный портрет, меняющий его судьбу.</t>
@@ -769,7 +1085,16 @@
 Малая Морская улица в гоголевском Петербурге – это место, где реальность переплетается с фантазией, где за обыденными вещами скрываются таинственные силы. Повесть «Портрет», написанная в 1835 году, затрагивает важные вопросы о природе искусства, о соблазнах богатства и славы, о нравственной ответственности художника перед своим талантом. Прогуливаясь по Малой Морской улице, можно попытаться разгадать загадку портрета и понять, что хотел сказать Гоголь своим произведением.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/9/k/9/9k93fipnwazxbe1r0k.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/s/h/z/shzw19s01fp8e17drc.jpg</t>
+  </si>
+  <si>
     <t>Памятник Н.В.Гоголю на Невском проспекте</t>
+  </si>
+  <si>
+    <t>59.936404, 30.325013</t>
   </si>
   <si>
     <t>Скульптура на главной улице города, посвящённая Гоголю - писателю, который сделал Петербург героем своих произведений.</t>
@@ -780,7 +1105,16 @@
 Памятник Гоголю стал одним из символов Невского проспекта, главной улицы Петербурга, которую писатель так живописно описал в своих повестях. Здесь, на Невском проспекте, можно встретить чиновников, офицеров, купцов, дам в модных платьях и просто прохожих, словно сошедших со страниц произведений Гоголя. Памятник Гоголю – это напоминание о том, что его произведения до сих пор актуальны и помогают нам лучше понять русскую душу.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/7/5/3/753dbwbpk03fx7bop0.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/4/6/5/46537abe505b323f218f16869832d5cc.jpg</t>
+  </si>
+  <si>
     <t>Квартира П. А. Плетнёва</t>
+  </si>
+  <si>
+    <t>59.935250, 30.331454</t>
   </si>
   <si>
     <t>Место встреч литературной элиты Петербурга. Здесь Гоголь читал новые произведения и обсуждал их с критиками и друзьями.</t>
@@ -791,7 +1125,16 @@
 В квартире Плетнёва Гоголь читал свои новые произведения, обсуждал литературные новинки и получал ценные советы и поддержку. Плетнёв был одним из первых, кто оценил талант Гоголя и помог ему пробиться в литературный мир. Посещение квартиры Плетнёва – это возможность окунуться в атмосферу литературного Петербурга и узнать больше о взаимоотношениях между писателями и критиками того времени.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/6/b/l/6blmesn3itckwv7u0m.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/9/b/8/9b8f20aed1cbd3cddf6a9c3b41b391b7.jpg</t>
+  </si>
+  <si>
     <t>Александрийский театр</t>
+  </si>
+  <si>
+    <t>59.931774, 30.336278</t>
   </si>
   <si>
     <t>Один из старейших театров России, где ставили пьесы Гоголя. Важный центр культурной жизни Петербурга XIX века.</t>
@@ -802,7 +1145,16 @@
 В Александрийском театре ставились пьесы русских и зарубежных драматургов, выступали знаменитые актёры, и собиралась самая изысканная публика. Гоголь не только смотрел спектакли, но и сам писал пьесы для театра, в том числе знаменитого "Ревизора", премьера которого состоялась в 1836 году. Посещение Александрийского театра – это возможность прикоснуться к театральной истории Петербурга и представить себе, как выглядели представления, которые видел Гоголь.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/w/q/j/wqja2cp9228uokcrfz.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/6/5/1/65195794a27596b12d745add9f31173b.jpg</t>
+  </si>
+  <si>
     <t>Ресторан "Палкинъ"</t>
+  </si>
+  <si>
+    <t>59.932446, 30.347381</t>
   </si>
   <si>
     <t>Знаменитое заведение, где встречались писатели, артисты и художники. Гоголь часто бывал здесь, обсуждая литературные новости за ужином или чашкой чая. "Палкинъ" был не просто рестораном, а настоящим клубом творческой элиты Петербурга, местом вдохновения и общения.</t>
@@ -813,6 +1165,12 @@
 Ресторан «Палкинъ» был не просто местом, где можно вкусно поесть, но и своеобразным клубом, где собирались люди искусства, обсуждали новости и делились своими творческими планами. Посещение ресторана «Палкинъ» – это возможность окунуться в атмосферу Петербурга XIX века и почувствовать себя частью литературного мира Гоголя.</t>
   </si>
   <si>
+    <t>https://img.pastvu.com/d/g/3/p/g3pn8l967ajvkus56a.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pastvu.com/d/f/s/3/fs3zimnvyp3ppzy6wj.jpg</t>
+  </si>
+  <si>
     <t>Детский музейный центр исторического воспитания</t>
   </si>
   <si>
@@ -824,12 +1182,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Этот деревянный особняк в стиле северного модерна с элементами неоклассицизма имеет богатую историю, связанную с образованием и политикой XX века.
 </t>
     </r>
@@ -839,7 +1191,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. До революции (1910-е годы)</t>
     </r>
@@ -848,7 +1199,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Здание построено в 1909–1910 гг. по проекту архитектора Александра Гегелло (известного мастера петербургского модерна).
@@ -862,7 +1212,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Советский период (1920–1990-е)</t>
     </r>
@@ -871,7 +1220,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 После революции в здании размещались детские учреждения:
@@ -891,7 +1239,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -900,7 +1247,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Деревянная отделка с резными элементами.
@@ -914,7 +1260,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Здание стало символом преемственности:</t>
     </r>
@@ -923,13 +1268,15 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Дореволюционная школа → Советский дом пионеров → Современный музей.</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/507563</t>
+  </si>
+  <si>
     <t>Музей-квартира М.Ф. Фофанова</t>
   </si>
   <si>
@@ -945,7 +1292,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. Постройка и дореволюционный период (XIX век)</t>
     </r>
@@ -954,7 +1300,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Дом возведён в 1870-х годах в стиле эклектики (типичная доходная застройка Петербурга).
@@ -968,7 +1313,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Советское время (XX век)</t>
     </r>
@@ -977,7 +1321,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 После революции здание превращено в коммунальные квартиры, мемориальная обстановка утрачена.
@@ -991,7 +1334,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Создание музея (2000-е – настоящее время)</t>
     </r>
@@ -1000,7 +1342,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 2009 году открыта мемориальная комната в рамках Музея А.А. Ахматовой в Фонтанном Доме.
@@ -1016,7 +1357,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -1025,7 +1365,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранились лепнина, перила парадной лестницы, высокие потолки – характерные черты петербургских доходных домов.
@@ -1038,12 +1377,14 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Интересный факт: В этом же доме в разное время жили художник И.И. Бродский и композитор В.П. Соловьёв-Седой.</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/1308753</t>
+  </si>
+  <si>
     <t>Квартира Г.К Флаксерман</t>
   </si>
   <si>
@@ -1054,13 +1395,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>1. До революции (конец XIX – начало XX века)</t>
     </r>
     <r>
@@ -1068,7 +1402,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Дом построен в 1905–1908 гг. в стиле петербургского модерна (архитектор неизвестен, возможно, мастерская А.И. Зазерского).
@@ -1082,7 +1415,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Советский период (1917–1990-е)</t>
     </r>
@@ -1091,7 +1423,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 После Октябрьской революции квартира стала нелегальной явкой чекистов (здесь бывали Дзержинский, Урицкий).
@@ -1105,7 +1436,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Современность (с 2000-х)</t>
     </r>
@@ -1114,7 +1444,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 2015 году по инициативе Музея политической истории России открыта мемориальная комната.
@@ -1130,7 +1459,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -1139,7 +1467,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранились лепные потолки, двери с фурнитурой 1910-х, печь с изразцами.
@@ -1152,12 +1479,14 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Важно: Это единственная в Петербурге мемориальная квартира чекиста-революционера, не превращённая в «музей террора», а показывающая быт и идеалы эпохи.</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/136466</t>
+  </si>
+  <si>
     <t>Музей-квартира Елизаровых</t>
   </si>
   <si>
@@ -1173,7 +1502,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. До революции (1910-е годы)</t>
     </r>
@@ -1182,7 +1510,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Дом построен в 1912–1913 гг. в стиле петербургского доходного дома (архитектор — предположительно А.Л. Лишневский).
@@ -1196,7 +1523,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Жизнь Ленина в квартире (1915–1917)</t>
     </r>
@@ -1205,7 +1531,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В апреле 1917 года здесь несколько дней скрывался В.И. Ленин после возвращения из эмиграции (до переезда в особняк Кшесинской).
@@ -1219,7 +1544,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Советский период и создание музея</t>
     </r>
@@ -1228,7 +1552,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 1920–1930-е квартира оставалась жилой, но уже в 1937 году её превратили в мемориальный музей.
@@ -1242,7 +1565,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Экспозиция и интерьеры:</t>
     </r>
@@ -1251,7 +1573,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Кабинет Елизарова — подлинные документы, книги, мебель.
@@ -1266,7 +1587,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -1275,7 +1595,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранены двери с довоенной фурнитурой, печь с изразцами, лепнина на потолках.
@@ -1288,12 +1607,14 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Интересный факт: В этом же доме жил А.А. Блок, но в другой квартире.</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/114477</t>
+  </si>
+  <si>
     <t xml:space="preserve">Особняк Матильды Кшесинской </t>
   </si>
   <si>
@@ -1309,7 +1630,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. Строительство (1904–1906)</t>
     </r>
@@ -1318,7 +1638,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Архитектор: Александр фон Гоген (мастер северного модерна).
@@ -1331,7 +1650,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Особенности:</t>
     </r>
@@ -1340,7 +1658,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Асимметричный фасад с колоннами и лепниной.
@@ -1354,7 +1671,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Жизнь в особняке (1906–1917)</t>
     </r>
@@ -1363,7 +1679,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Здесь проходили балы, встречи артистической элиты (Шаляпин, Анна Павлова).
@@ -1376,7 +1691,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Революция и советский период</t>
     </r>
@@ -1385,7 +1699,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 1917 году здание заняли большевики — здесь работали Ленин, Сталин, Дзержинский.
@@ -1398,7 +1711,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>4. Современность</t>
     </r>
@@ -1407,7 +1719,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 С 1957 года — Музей политической истории России.
@@ -1423,7 +1734,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные детали:</t>
     </r>
@@ -1432,7 +1742,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Парадная лестница — мраморная, с золочёными перилами.
@@ -1446,12 +1755,14 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Интересно: В 1990-х потомки Кшесинской требовали вернуть особняк, но музей сохранил статус.</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/658389</t>
+  </si>
+  <si>
     <t xml:space="preserve">Финляндский вокзал </t>
   </si>
   <si>
@@ -1467,7 +1778,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. Строительство и дореволюционный период (1870–1917)</t>
     </r>
@@ -1476,7 +1786,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Год постройки: 1870 (открыт для движения поездов 11 сентября 1870 года).
@@ -1490,7 +1799,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Особенности:</t>
     </r>
@@ -1499,7 +1807,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Первый вокзал в России с паровым отоплением.
@@ -1512,7 +1819,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2. Революционные события (1917)
 </t>
@@ -1522,7 +1828,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 апреля 1917 года на Финляндский вокзал прибыл Ленин из эмиграции (знаменитый выступление с броневика).
 Вокзал стал символом революции — здесь встречали видных большевиков, а в 1926 году установили памятник Ленину (скульптор Сергей Евсеев).
@@ -1534,7 +1839,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Советский период и реконструкции</t>
     </r>
@@ -1543,7 +1847,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1950-е: Первая масштабная реконструкция (архитекторы П. Ашастин, Н. Барулин, Я. Лукин).
@@ -1558,7 +1861,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>4. Современность (с 2000-х)</t>
     </r>
@@ -1567,7 +1869,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 2003 году проведена реставрация, обновлены интерьеры.
@@ -1580,7 +1881,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -1589,7 +1889,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Башня со шпилем (высота 52 м) — доминанта вокзала.
@@ -1604,10 +1903,12 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Интересный факт: В 1917 году Ленин уехал с этого вокзала в подполье, а в 1957-м здесь снимали сцену прибытия для фильма "Ленин в Октябре".</t>
     </r>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/1464645</t>
   </si>
   <si>
     <t>Смольный институт</t>
@@ -1627,7 +1928,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. Строительство и дореволюционный период (1764–1917)</t>
     </r>
@@ -1636,7 +1936,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Год основания: 1764 (по указу Екатерины II).
@@ -1650,7 +1949,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Особенности:</t>
     </r>
@@ -1659,7 +1957,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Воспитанницы изучали языки, искусства, светские манеры.
@@ -1672,7 +1969,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Революционные события (1917–1920-е)</t>
     </r>
@@ -1681,7 +1977,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Октябрь 1917: Смольный стал штабом большевиков во время революции.
@@ -1696,7 +1991,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Советский период (1930–1990-е)</t>
     </r>
@@ -1705,7 +1999,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 1934 году после убийства Кирова здание передано Ленсовету (городской администрации).
@@ -1718,7 +2011,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>4. Современность</t>
     </r>
@@ -1727,7 +2019,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 С 1996 года — резиденция губернатора Санкт-Петербурга.
@@ -1740,7 +2031,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -1749,7 +2039,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
  Главный корпус — образец классицизма: колонны, треугольный фронтон.
@@ -1764,7 +2053,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Интересный факт:</t>
     </r>
@@ -1773,7 +2061,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> В 1917 году в Смольном находилась первая в мире женская военная команда (под руководством Марии Бочкарёвой).</t>
     </r>
@@ -1783,7 +2070,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1793,12 +2079,14 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Здание изображено на советских купюрах 1961 года.</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/989120</t>
+  </si>
+  <si>
     <t>Квартира-музей Аллилуевых</t>
   </si>
   <si>
@@ -1814,7 +2102,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. До революции (1910-е годы)</t>
     </r>
@@ -1823,7 +2110,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Дом построен в 1912–1913 гг. как доходный дом для среднего класса.
@@ -1836,7 +2122,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Революционный период (1917–1918)</t>
     </r>
@@ -1845,7 +2130,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Апрель 1917: После возвращения из ссылки здесь поселился Иосиф Сталин.
@@ -1859,7 +2143,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3. Советский период и создание музея
 </t>
@@ -1869,7 +2152,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1930-е: Квартира стала мемориальной, но доступ был ограничен.
 1949: Официальное открытие музея Сталина (просуществовал до 1956 года, затем закрыт в рамках десталинизации).
@@ -1882,7 +2164,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Экспозиция и интерьеры:</t>
     </r>
@@ -1891,7 +2172,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
  Комната Сталина — воссозданный кабинет с личными вещами (письменный стол, книги).
@@ -1906,7 +2186,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -1915,7 +2194,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранены двери, паркет, печь 1910-х годов.
@@ -1928,7 +2206,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Интересный факт:                                                                                                                                                                                                                        </t>
     </r>
@@ -1937,7 +2214,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">В этой квартире молодой Сталин познакомился с 16-летней Надеждой Аллилуевой (своей будущей женой).
 В 1932 году Надежда покончила с собой, что стало личной трагедией Сталина.
@@ -1949,7 +2225,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Современное состояние:                                                                                                                                                                                                        </t>
     </r>
@@ -1958,13 +2233,15 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Открыт для экскурсий, но без героизации Сталина — акцент на исторический контекст.
 Входит в маршрут «Петербург революции».</t>
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/136309</t>
+  </si>
+  <si>
     <t>Квартира В.Д. Бонч-Бруевича</t>
   </si>
   <si>
@@ -1980,7 +2257,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. До революции (1910-е годы)</t>
     </r>
@@ -1989,7 +2265,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Дом построен в 1913–1914 гг. в стиле петербургского модерна (архитектор — Д.А. Крыжановский).
@@ -2002,7 +2277,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Революционный период (1917–1918)</t>
     </r>
@@ -2011,7 +2285,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1917: После Февральской революции Бонч-Бруевич вернулся из эмиграции и активно участвовал в подготовке Октябрьского переворота.
@@ -2025,7 +2298,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>3. Советский период и создание музея</t>
     </r>
@@ -2034,7 +2306,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1920-е: Квартира стала первым в СССР мемориальным музеем революции.
@@ -2048,7 +2319,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Экспозиция и интерьеры:</t>
     </r>
@@ -2057,7 +2327,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Кабинет Бонч-Бруевича — подлинная мебель, книги, рукописи.
@@ -2071,7 +2340,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -2080,7 +2348,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранены лепные потолки, двери с фурнитурой 1910-х, печь с изразцами.
@@ -2093,7 +2360,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Интересный факт:
 </t>
@@ -2103,7 +2369,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Бонч-Бруевич — не только революционер, но и писатель-этнограф. В музее есть его работы о сектантах и старообрядцах.
 Именно он предложил перенести столицу в Москву в 1918 году.
@@ -2115,7 +2380,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Современное состояние:</t>
     </r>
@@ -2124,7 +2388,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Входит в состав Музея политической истории России.
@@ -2133,6 +2396,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/136470</t>
+  </si>
+  <si>
     <t>Доходный дом Н.Н. Кривоногова</t>
   </si>
   <si>
@@ -2149,7 +2415,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1. Строительство и дореволюционный период (1910-е годы)</t>
@@ -2159,7 +2424,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2175,7 +2439,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2. Советский период (1920–1990-е)</t>
@@ -2185,7 +2448,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2200,7 +2462,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3. Современность</t>
@@ -2210,7 +2471,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2222,7 +2482,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>В подъездах остались:</t>
@@ -2232,7 +2491,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2247,7 +2505,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Архитектурные особенности:</t>
@@ -2257,7 +2514,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2269,7 +2525,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Фасад:</t>
@@ -2279,7 +2534,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2294,7 +2548,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Парадная лестница:</t>
@@ -2304,7 +2557,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2318,7 +2570,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Двор-колодец:</t>
@@ -2328,7 +2579,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2342,7 +2592,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Интересные факты:</t>
@@ -2352,13 +2601,15 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 В 1910-х годах здесь могла жить творческая интеллигенция — художники, журналисты.
 В 1990-х дом едва не снесли из-за аварийности, но защищён активистами.</t>
     </r>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/2060538</t>
   </si>
   <si>
     <t>Музей печати</t>
@@ -2379,7 +2630,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. До революции (XIX – начало XX века)</t>
     </r>
@@ -2388,7 +2638,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Построен в 1820-е годы как доходный дом в стиле классицизма.
@@ -2401,7 +2650,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Владельцы:</t>
     </r>
@@ -2410,7 +2658,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 1870-х — купец С.П. Гусев, разместивший здесь типографию и книжную лавку.
@@ -2423,7 +2670,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. Революционный период (1917–1920-е)</t>
     </r>
@@ -2432,7 +2678,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 В 1917 году в здании работала подпольная типография большевиков.
@@ -2444,7 +2689,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 3. Музейный период (с 1984 года)
@@ -2455,7 +2699,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">В 1984 году открыт как Музей печати.
 В 1991 стал филиалом Музея истории Санкт-Петербурга.
@@ -2467,7 +2710,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Экспозиция:</t>
     </r>
@@ -2476,7 +2718,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Типография XIX века
@@ -2499,7 +2740,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности</t>
     </r>
@@ -2508,7 +2748,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранились:
@@ -2518,6 +2757,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/1605486</t>
+  </si>
+  <si>
     <t>Здание первого кадетского корпуса</t>
   </si>
   <si>
@@ -2536,7 +2778,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>1. Основание и XVIII век</t>
     </r>
@@ -2545,7 +2786,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1731 год: Указ Анны Иоанновны о создании «Корпуса кадет»
@@ -2559,7 +2799,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>2. XIX – начало XX века</t>
     </r>
@@ -2568,7 +2807,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1800-е: Обучение будущих героев Отечественной войны 1812 года
@@ -2582,7 +2820,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3. Современность
 </t>
@@ -2592,7 +2829,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сейчас здесь размещается Военно-космическая академия им. Можайского
 Часть помещений доступна для экскурсий (парадные залы, музей)
@@ -2604,7 +2840,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Архитектурные особенности:</t>
     </r>
@@ -2613,7 +2848,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Главный фасад: Сочетает петровское барокко с элементами классицизма
@@ -2629,7 +2863,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Известные выпускники</t>
     </r>
@@ -2638,7 +2871,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Фельдмаршал П.А. Румянцев-Задунайский
@@ -2652,7 +2884,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Посещение сегодня</t>
     </r>
@@ -2661,7 +2892,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Музей истории корпуса: Открыт по предварительной записи
@@ -2673,7 +2903,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Что посмотреть:</t>
     </r>
@@ -2682,7 +2911,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Модели военной техники
@@ -2691,6 +2919,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/431233</t>
+  </si>
+  <si>
     <t>Музей Нарвская застава</t>
   </si>
   <si>
@@ -2709,7 +2940,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">История здания </t>
     </r>
@@ -2718,7 +2948,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1827-1834 гг.
 Построен как кордегардия (караульное помещение) Нарвских триумфальных ворот
@@ -2736,7 +2965,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Экспозиции</t>
     </r>
@@ -2745,7 +2973,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 "Нарвская застава: от дороги к городу"
@@ -2768,7 +2995,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Особенности музея</t>
     </r>
@@ -2777,7 +3003,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Сохранились исторические ворота во дворе
@@ -2791,7 +3016,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t>Посетителям</t>
     </r>
@@ -2800,7 +3024,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Часы работы: 11:00-17:00 (выходной — понедельник)
@@ -2812,6 +3035,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/1011347</t>
+  </si>
+  <si>
     <t>Кировский завод</t>
   </si>
   <si>
@@ -2824,6 +3050,9 @@
     <t>В 1920-е годы завод переживал кризис, но при Кирове (возглавившем Ленинград в 1926 году) началась масштабная модернизация. Были построены новые цеха, внедрены передовые технологии. В 1934 году, после убийства Кирова, заводу присвоили его имя. В годы блокады здесь под бомбёжками продолжали выпускать танки, что стало возможным благодаря созданной Кировым производственной базе.</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/943614</t>
+  </si>
+  <si>
     <t>Кировский райсовет (администрация Кировского района)</t>
   </si>
   <si>
@@ -2836,6 +3065,9 @@
     <t>Здание возводилось как символ новой власти - с колоннами, барельефами рабочих и серпом с молотом на фасаде. Здесь размещались районные комитеты партии и комсомола, курировавшие промышленные гиганты вроде Кировского завода. Киров лично посещал здание для отчётов о выполнении пятилеток. В 1941-1944 гг. здесь работал штаб местной противовоздушной обороны. Сохранился исторический зал заседаний с дубовыми панелями и портретом Кирова над трибуной.</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/119827</t>
+  </si>
+  <si>
     <t>Памятник Кирову на Кировской площади</t>
   </si>
   <si>
@@ -2848,6 +3080,9 @@
     <t>Скульптор Н.В. Томский изобразил Кирова в момент выступления: правая рука призывно протянута вперёд, левая сжимает свиток с речью. Постамент украшен барельефами на тему индустриализации. Любопытно, что первоначальный проект включал фигуры рабочих у подножия, но Сталин велел их убрать, чтобы не отвлекать внимание от вождя. В блокаду памятник укрыли мешками с песком - он уцелел без повреждений. В 1990-е предлагали демонтировать монумент, но он остался как исторический артефакт.</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1122372</t>
+  </si>
+  <si>
     <t>Смольный институт – кабинет Кирова</t>
   </si>
   <si>
@@ -2860,6 +3095,9 @@
     <t>Кабинет №67 на третьем этаже сохранил обстановку 1930-х: дубовый стол, кожаный диван, телефоны прямой связи с Москвой. Здесь Киров принимал Сталина в 1926 и 1933 годах. В сейфе хранились списки на аресты "врагов народа" - их подписывал лично Киров. После убийства в кабинете устроили мемориальную зону: на столе - остановленные часы (13:30 - время покушения), на вешалке - его кожаное пальто с дыркой от пули (подлинник хранится в архивах ФСБ).</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1152119</t>
+  </si>
+  <si>
     <t>Дом Кирова</t>
   </si>
   <si>
@@ -2870,6 +3108,9 @@
   </si>
   <si>
     <t>Квартира №20 занимала весь 4-й этаж левого подъезда: 7 комнат, отделка дубом и мрамором. В кабинете - библиотека с 20 000 книг (Киров собирал редкие издания по истории революции). Сохранился секретный лифт, которым он пользовался из-за угроз покушений. После убийства квартиру превратили в музей: в спальне - неубранная постель, на столе - недописанное письмо Сталину. В 1990-е музей дополнили экспозицией о политических репрессиях, жертвой которых стал и сам Киров.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/674009</t>
   </si>
   <si>
     <t>Место убийства Кирова (бывший Смольнинский райком)</t>
@@ -2891,6 +3132,9 @@
 3)Следователь, вёдший дело, был расстрелян через год</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1679667</t>
+  </si>
+  <si>
     <t>Кировский стадион (ныне "Петровский")</t>
   </si>
   <si>
@@ -2904,8 +3148,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Киров лично курировал реконструкцию:
@@ -2914,8 +3158,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Вместимость увеличена до 25 000 зрителей
@@ -2927,8 +3171,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Сохранились:
@@ -2937,8 +3181,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Мемориальная доска у центрального входа
@@ -2947,6 +3191,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/2330439</t>
+  </si>
+  <si>
     <t>Кировский мост (ныне Троицкий)</t>
   </si>
   <si>
@@ -2959,8 +3206,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">В 1934 г. мост переименован в честь Кирова, хотя сам он не имел отношения к его строительству. В 1930-е </t>
@@ -2969,8 +3216,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">по мосту проходили:
@@ -2979,8 +3226,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Колонны демонстрантов 1 мая и 7 ноября
@@ -2992,8 +3239,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">сохранились:
@@ -3002,8 +3249,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Чугунные перила с символикой 1930-х
@@ -3012,6 +3259,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/963914</t>
+  </si>
+  <si>
     <t>Кировский универмаг (ныне "Большой Гостиный Двор")</t>
   </si>
   <si>
@@ -3024,8 +3274,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">В 1930-е универмаг стал "витриной социализма":
@@ -3038,8 +3288,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">После его смерти:
@@ -3048,8 +3298,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1)Установлен бюст в центральном зале (демонтирован в 1956 г.)
@@ -3061,8 +3311,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Сохранившиеся артефакты:
@@ -3071,8 +3321,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1)Подлинные ценники 1934 года в Музее торговли
@@ -3081,6 +3331,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/1250946</t>
+  </si>
+  <si>
     <t>Парк имени Кирова (Елагин остров)</t>
   </si>
   <si>
@@ -3094,8 +3347,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Создание парка:
@@ -3104,8 +3357,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">По инициативе Кирова в 1932 году Елагин остров был преобразован в "Центральный парк культуры и отдыха имени С.М. Кирова". Он лично утверждал план благоустройства, требуя сделать парк "образцом социалистического отдыха".
@@ -3115,8 +3368,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Архитектурные особенности:
@@ -3125,8 +3378,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1)Построены эстрады для массовых мероприятий (Киров выступал здесь в 1933 г.)
@@ -3138,8 +3391,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Траурные события:
@@ -3148,8 +3401,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1)3 декабря 1934 года в парке прошёл 100-тысячный митинг памяти Кирова
@@ -3160,8 +3413,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Современные следы эпохи:
@@ -3170,8 +3423,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1)Сохранилась планировка аллей 1930-х годов
@@ -3185,6 +3438,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/1787197</t>
+  </si>
+  <si>
     <t>Дом офицеров (бывший Штаб Ленинградского фронта)</t>
   </si>
   <si>
@@ -3197,8 +3453,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">В сентябре 1941 года, когда немецкие войска стояли у стен Ленинграда, именно это здание стало штабом Ленинградского фронта. 14 сентября сюда прибыл генерал армии Георгий Жуков, назначенный Ставкой новым командующим. В кабинете на втором этаже (ныне мемориальный зал) он провёл ряд жёстких совещаний, переломивших ход обороны города.
@@ -3208,8 +3464,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Жуков отдал приказы:
@@ -3218,8 +3474,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1)Сформировать ударные группы из последних резервов
@@ -3231,8 +3487,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Сохранились:
@@ -3241,8 +3497,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1)Подлинная карта обороны Ленинграда с пометками Жукова
@@ -3251,6 +3507,9 @@
     </r>
   </si>
   <si>
+    <t>https://pastvu.com/p/1892505</t>
+  </si>
+  <si>
     <t>Пулковские высоты (рубеж обороны)</t>
   </si>
   <si>
@@ -3263,8 +3522,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">В сентябре 1941 года за эти высоты шли ожесточённые бои – кто контролировал Пулково, тот мог обстреливать Ленинград прямой наводкой. </t>
@@ -3273,8 +3532,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">18 сентября Жуков лично объехал позиции, приказав:
@@ -3283,8 +3542,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1)Создать три линии окопов с железобетонными ДОТами
@@ -3296,8 +3555,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Ключевую роль сыграли:
@@ -3306,8 +3565,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1)85-мм зенитные орудия, стрелявшие по танкам
@@ -3319,8 +3578,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Сегодня на высоте сохранились</t>
@@ -3328,8 +3587,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:
@@ -3337,6 +3596,9 @@
 2)Памятник "Пулковский рубеж" (1975 г.) с именами погибших
 3)Оригинальные немецкие каски и гильзы, находимые при раскопках</t>
     </r>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/1485070</t>
   </si>
   <si>
     <t>Музейно-мемориальный комплекс Дорога жизни, Музей-диорама Прорыв блокады Ленинграда</t>
@@ -3355,6 +3617,9 @@
 2)Сохранению Кировского завода, выпускавшего танки для прорыва.</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1700548</t>
+  </si>
+  <si>
     <t>Смольный институт (штаб Жукова в сентябре 1941)</t>
   </si>
   <si>
@@ -3367,8 +3632,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">С 1917 года — штаб революции, в 1941-м — центр обороны Ленинграда. Здесь работали Жданов, Ворошилов, затем Жуков.
@@ -3378,8 +3643,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Связь с Жуковым:
@@ -3388,8 +3653,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>18 сентября 1941 года Жуков отдал из Смольного приказ № 0046:
@@ -3398,6 +3663,9 @@
 3)Минировать заводы на случай сдачи города.
 Эти меры, хотя и жёсткие, предотвратили панику и стабилизировали фронт.</t>
     </r>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/599725</t>
   </si>
   <si>
     <t>Невский пятачок (плацдарм на левом берегу Невы)</t>
@@ -3415,6 +3683,9 @@
 1)Удерживать плацдарм, несмотря на потери.
 2)Ежедневно переправлять подкрепления.
 Его решение сохранить плацдарм позволило в 1943 году использовать его для прорыва блокады.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/1463084</t>
   </si>
   <si>
     <t>Кировский завод (оборонное производство)</t>
@@ -3436,6 +3707,9 @@
 </t>
   </si>
   <si>
+    <t>https://pastvu.com/p/292390</t>
+  </si>
+  <si>
     <t>Памятник Жукову в Московском парке Победы</t>
   </si>
   <si>
@@ -3446,6 +3720,9 @@
   </si>
   <si>
     <t>Установлен к 50-летию Победы. Жуков изображён в момент принятия решения — как в критические дни сентября 1941-го.Надпись на постаменте гласит: «Г. К. Жукову — от ленинградцев». Это единственный памятник маршалу, подчёркивающий его роль именно в обороне города.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/1195722</t>
   </si>
   <si>
     <t>Бункер Жукова (у Смольного)</t>
@@ -3462,20 +3739,35 @@
 Согласно журналу посещений, Жуков спускался сюда 5 раз (18-27 сентября 1941 года) во время артобстрелов.По некоторым данным, здесь находился резервный КП Жукова. В сентябре 1941-го он почти не спал, работая над картами обороны.</t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1476889</t>
+  </si>
+  <si>
     <t>Военно-исторический музей артиллерии</t>
   </si>
   <si>
     <t>59.954642, 30.313707</t>
   </si>
   <si>
-    <t>Крупнейший музей военной техники в России.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основан в 1703 году Петром I. В зале № 12 — личные вещи Жукова:
-Китель образца 1943 года.
-Планшет с пометками по обороне Ленинграда.
-Директива Ставки № 00219 о его назначении.
-</t>
+    <t xml:space="preserve">Это крупнейший в России музей артиллерийского вооружения, включающий коллекции от средневековых пушек до современных ракетных комплексов. Основанный в 1703 году Петром I, он хранит уникальные экспонаты, связанные с военной историей России, а также интерактивные выставки и мемориальные залы. Музей входит в комплекс исторических объектов крепости, внесённых в список ЮНЕСКО.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание и XVIII век
+Музей начал формироваться в 1703 году, когда Пётр I приказал собирать «достопамятные» артиллерийские орудия в Санкт-Петербурге. Первые экспонаты размещались в здании Главного арсенала Петропавловской крепости. В 1756 году по указу Елизаветы Петровны была создана «Достопамятная зала» для хранения трофейных пушек, захваченных в войнах с Швецией и Турцией.
+XIX век
+В 1868 году коллекция получила официальный статус музея. Сюда свозили орудия со всей России, включая реликвии Полтавской битвы (1709) и Отечественной войны 1812 года. Особую ценность представляли личные вещи полководцев — например, сабля Наполеона, подаренная Александру I.
+XX век
+После революции 1917 года музей сохранился благодаря статусу «хранилища военной истории». В 1930-е годы экспозицию расширили за счёт трофеев Гражданской войны. Во время блокады Ленинграда (1941–1944) здание Арсенала частично пострадало, но коллекцию удалось спасти. После войны музей пополнился немецкой техникой, захваченной в ходе Великой Отечественной, включая знаменитые «Катюши» и орудия Вермахта.
+Современность
+С 1965 года музей носит современное название, объединив артиллерию, инженерные войска и войска связи. Сегодня здесь более 850 тыс. экспонатов: от древнерусских самострелов до баллистических ракет «Тополь». В 2002 году открылся зал, посвящённый истории военной формы. Музей активно использует мультимедийные технологии: например, инсталляции битв и 3D-модели укреплений.
+Архитектура
+Главное здание музея — памятник классицизма (архитектор П.И. Таманский, 1860-е). Его фасад украшают чугунные пушки XVIII века, а внутренние залы сохранили историческую планировку. Во дворе выставлена тяжёлая техника: танки, САУ и даже советская ядерная ракета Р-12.
+Культурное значение
+Музей служит образовательным центром: здесь проводятся лекции, реконструкции и квесты для школьников. Его коллекции — важный источник для изучения эволюции военного дела в России. Экспонаты участвуют в международных выставках, а сам музей входит в топ-10 военных музеев мира по версии UNESCO.
+</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/766254</t>
   </si>
   <si>
     <t>Площадь Победы (Монумент героическим защитникам Ленинграда)</t>
@@ -3484,13 +3776,30 @@
     <t>59.847608, 30.321431</t>
   </si>
   <si>
-    <t>Главный мемориал блокады (открыт в 1975-м).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В подземном зале — документы о роли Жукова. Хотя он не дожил до открытия, его вклад в спасение Ленинграда не забыт.Открыт 9 мая 1975 года (архитектор С. Сперанский). В подземном зале — 900 светильников (по числу блокадных дней) и документы, где Жуков упоминается 17 раз.
-Цитата:
-Из воспоминаний Жукова: «Тогда, в сентябре 41-го, мы спасли не просто город — мы спасли честь страны».
-</t>
+    <t xml:space="preserve">Площадь Победы — мемориальный комплекс на Московском проспекте Санкт-Петербурга, посвящённый подвигу жителей и защитников Ленинграда в годы Великой Отечественной войны. Центральный элемент — 48-метровый гранитный обелиск, окружённый скульптурными группами, символизирующими мужество солдат, труд горожан и скорбь о погибших. Под монументом находится подземный памятный зал с экспозицией, связанной с блокадой. Комплекс, открытый в 1975 году, стал одним из главных символов памяти о героизме ленинградцев и трагедии блокады (1941–1944).
+</t>
+  </si>
+  <si>
+    <t>Создание мемориала
+Идея возведения памятника возникла ещё в 1940-е годы, но реализация началась лишь в 1960-х. Конкурс на проект выиграли архитекторы Сергей Сперанский и Валентин Каменский, а скульптор Михаил Аникушин создал основные композиции. Строительство велось с 1971 по 1975 год, и торжественное открытие приурочили к 30-летию Победы (9 мая 1975 года).
+Архитектура и символика
+Обелиск: 48-метровая стела из красного гранита, увенчанная золотой звездой, напоминает штык — символ обороны. На граните высечены даты «1941–1945».
+Скульптурные группы:
+«Солдаты»: 26 бронзовых фигур с автоматами и знамёнами олицетворяют защитников города.
+«Ополченцы»: рабочие, студенты, женщины с детьми — образы тех, кто строил укрепления и держал оборону.
+Разорванное кольцо: два полукруга из гранита символизируют прорыв блокады в 1943 году.
+Подземный зал: в нём хранятся реликвии блокады — дневник Тани Савичевой, оружие, фотографии, звучат записи метронома и голос Левитана.
+Исторический контекст
+Монумент посвящён одному из самых трагических эпизодов войны — 872-дневной блокаде Ленинграда, унёсшей жизни около 1 млн человек. Он стал местом, где соединились память о воинах Ленинградского фронта и гражданских, переживших голод и бомбёжки.
+Современность
+В 2018–2019 годах проведена масштабная реставрация: обновлены гранитные плиты, освещение, восстановлены элементы скульптур.
+Ежегодно 27 января (день полного снятия блокады) и 9 мая здесь проходят церемонии с участием ветеранов, возложением цветов и воинскими салютами.
+Площадь Победы — обязательный пункт экскурсий по военной истории Петербурга. Рядом расположен парк Городов-Героев с аллеями в честь городов, отстоявших свободу СССР.
+Культурное значение
+Мемориал не только увековечивает подвиг, но и служит предостережением от повторения трагедии. Его изображение стало частью городской идентичности: например, силуэт обелиска часто используется в памятных открытках и фильмах о блокаде. В 2020 году комплекс включён в «Золотое кольцо блокадных памятников» Санкт-Петербурга.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/1676545</t>
   </si>
   <si>
     <t>Физико-технический институт им. А.Ф. Иоффе</t>
@@ -3499,10 +3808,28 @@
     <t>60.006839, 30.368798</t>
   </si>
   <si>
-    <t>Один из ведущих научных центров СССР, где начинал карьеру молодой Сахаров.</t>
-  </si>
-  <si>
-    <t>Здесь под руководством Игоря Тамма Сахаров сделал первые шаги в теоретической физике. Именно в этих стенах родились идеи, позже приведшие к созданию водородной бомбы.Именно здесь он осознал двойственность научного прогресса: его открытия могли как защитить страну, так и уничтожить человечество.</t>
+    <t>Физико-технический институт им. А.Ф. Иоффе (ФТИ) — ведущий научно-исследовательский центр России в области физики твёрдого тела, ядерной физики, астрофизики и нанотехнологий. Основан в 1918 году в Петрограде академиком Абрамом Иоффе как Физико-технический отдел Рентгенологического института. Сегодня институт известен разработками в области полупроводников, лазерных технологий и квантовых систем. Здесь работали нобелевские лауреаты, включая Жореса Алфёрова, а также создавалась научная база для советского атомного проекта.</t>
+  </si>
+  <si>
+    <t>Основание и ранние годы (1918–1930-е)
+Институт зародился в 1918 году, когда Абрам Иоффе, «отец советской физики», организовал Физико-технический отдел при Рентгенологическом институте. В 1923 году отдел стал самостоятельным учреждением — Ленинградским физико-техническим институтом (ЛФТИ). Иоффе привлёк талантливых учёных: П.Л. Капицу, И.В. Курчатова, Н.Н. Семёнова (все — будущие нобелевские лауреаты). Основные исследования тогда касались физики кристаллов, рентгеновских лучей и ядерных процессов.
+Вклад в атомный проект (1940-е)
+В 1943 году на базе ФТИ была создана Лаборатория № 2 под руководством Игоря Курчатова, где начались работы по созданию советской атомной бомбы. После войны институт участвовал в разработке ядерных реакторов и радиоэлектроники. Однако сам Иоффе в 1950 году был отстранён от руководства из-за «борьбы с космополитизмом», хотя оставался научным консультантом.
+Расцвет полупроводниковых технологий (1950–1980-е)
+В 1950-х ФТИ стал мировым лидером в исследованиях полупроводников. Под руководством Б.П. Козырева и В.М. Тучкевича здесь создали первые советские транзисторы и солнечные батареи. В 1960-е Жорес Алфёров (директор ФТИ в 1987–2003 гг.) разработал гетероструктуры, за что получил Нобелевскую премию по физике в 2000 году. Эти открытия легли в основу современной электроники и лазерных технологий.
+Современная эпоха (1990-е — настоящее время)
+После распада СССР институт сохранил статус ключевого научного центра. В 2000-х здесь создали Лабораторию нанотехнологий, а в 2010-х — Центр фотоники и квантовых материалов. Сегодня ФТИ сотрудничает с CERN, участвует в проектах ITER (термоядерный реактор) и исследованиях экзопланет.
+Структура и достижения
+Основные направления: физика плазмы, астрофизика, наноэлектроника, термоядерный синтез.
+Знаменитые выпускники: Лев Арцимович (управляемый термояд), Николай Басов (лазеры), Виталий Гинзбург (сверхпроводимость).
+Инфраструктура: установка «Гранат» для изучения космического излучения, лаборатория молекулярной электроники.
+Культурное и образовательное значение
+ФТИ им. Иоффе — кузница кадров для российской науки. При институте действует Академический университет, где готовят специалистов в области физики и информационных технологий. Мемориальный музей Иоффе хранит архивы и приборы начала XX века.
+Архитектура
+Историческое здание института на Политехнической улице (построено в 1916–1923 гг.) — образец неоклассицизма. В 1960-х добавлены корпуса с лабораториями, а в 2015 году открыт современный технопарк.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/2221266</t>
   </si>
   <si>
     <t>Ленинградский государственный университет</t>
@@ -3511,11 +3838,39 @@
     <t>59.942144, 30.298711</t>
   </si>
   <si>
-    <t>Главное здание ЛГУ на Университетской набережной.</t>
-  </si>
-  <si>
-    <t>Главное здание ЛГУ, где до войны учился Сахаров. В 1941 году университет эвакуировали в Ашхабад, а затем в Саратов.
-Связь с Сахаровым: Несмотря на войну, Сахаров с отличием окончил физфак в 1942 году. Его дипломная работа по квантовой теории уже тогда отличалась нестандартным подходом, что предопределило его будущее в науке.</t>
+    <t xml:space="preserve">Ленинградский государственный университет (ЛГУ) — одно из старейших и престижнейших высших учебных заведений России, основанное в 1724 году указом Петра I. Расположен в Санкт-Петербурге, его исторический кампус включает знаменитое здание «Двенадцати коллегий» на Васильевском острове. Университет стал alma mater для десятков выдающихся учёных, включая Дмитрия Менделеева, Ивана Павлова и Владимира Вернадского. Сегодня СПбГУ входит в топ-300 мировых университетов (QS Ranking) и сохраняет статус ведущего центра науки и образования в России.
+</t>
+  </si>
+  <si>
+    <t>Основание и XVIII век
+Университет создан в рамках Петербургской академии наук по проекту Петра I в 1724 году. Однако полноценная учебная деятельность началась лишь в 1819 году, когда Александр I подписал указ об учреждении Императорского Санкт-Петербургского университета. Первые факультеты — философский, юридический и историко-филологический.
+XIX век: расцвет науки
+В 1821–1835 годах университет переживал кризис из-за политики Николая I, но уже к 1840-м стал центром российской интеллектуальной жизни.
+Здесь работали математик Пафнутий Чебышёв, химик Дмитрий Менделеев (создатель периодической таблицы), физиолог Иван Павлов.
+В 1863 году университет получил автономию, что способствовало развитию свободной научной мысли.
+Революция и советский период
+После 1917 года университет переименован в Петроградский, а в 1924 году — в Ленинградский государственный университет (ЛГУ).
+В 1930-е годы из его состава выделились отдельные институты (медицинский, педагогический), но ЛГУ оставался флагманом фундаментальной науки.
+Во время блокады Ленинграда (1941–1944) университет эвакуировали в Саратов и Елабугу, но многие преподаватели и студенты погибли на фронте или от голода.
+Послевоенное время
+В 1948 году на базе ЛГУ открыт физический факультет, ставший кузницей кадров для советского атомного проекта.
+В 1969 году началось строительство нового кампуса в Старом Петергофе, где разместились естественно-научные факультеты.
+Среди выпускников этого периода — будущий президент России Владимир Путин (юридический факультет, 1975).
+Возвращение исторического имени
+В 1991 году, после распада СССР, университет вернул название «Санкт-Петербургский государственный университет» (СПбГУ). В 2009 году ему присвоен особый статус «уникального научно-образовательного комплекса».
+Современность
+Факультеты и институты: 24 факультета, включая восточный (старейший в России), математико-механический, юридический и свободных искусств.
+Научные достижения: участие в проектах ЦЕРН, открытие новых химических элементов (никоний, оганесон), разработки в области квантовых технологий.
+Нобелевские лауреаты: 8 выпускников и сотрудников, включая физиолога Ивана Павлова (1904) и экономиста Леонида Канторовича (1975).
+Архитектура
+Здание Двенадцати коллегий (1722–1742) — главный символ университета, памятник петровского барокко. Его длина — 400 метров, здесь расположены ректорат и исторические аудитории.
+Библиотека СПбГУ: одна из крупнейших в России (7 млн книг), хранит рукописи Ломоносова, редкие издания XVIII века.
+Культурное значение
+Университет стал местом действия многих литературных произведений (например, романа Достоевского «Бесы»). Его выпускники — не только учёные, но и писатели (Иосиф Бродский), политики (Александр Керенский), деятели искусства.
+Интересные факты</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/184859</t>
   </si>
   <si>
     <t>Квартира на ул. Чайковского, 27</t>
@@ -3527,35 +3882,91 @@
     <t>Типичный ленинградский доходный дом начала XX века.</t>
   </si>
   <si>
-    <t xml:space="preserve">Доходный дом начала XX века, где в 1950-е годы Сахаров останавливался, приезжая из закрытого города Арзамас-16.
+    <t xml:space="preserve">Дом № 27 на улице Чайковского (бывшей Сергиевской) в Санкт-Петербурге — историческое здание конца XIX века, построенное в стиле эклектики. Расположен в Центральном районе, недалеко от Таврического сада и Смольного института. В этом доме сохранились квартиры с оригинальными интерьерами, характерными для петербургской интеллигенции начала XX века. Известен благодаря тому, что здесь проживали видные деятели науки и культуры, а также происходили события, связанные с политической историей России. Доходный дом начала XX века, где в 1950-е годы Сахаров останавливался, приезжая из закрытого города Арзамас-16.
 Связь с Сахаровым: Здесь он обсуждал с коллегами последствия ядерных испытаний и начал задумываться о моральной ответственности учёного. Эти размышления позже легли в основу его правозащитной деятельности.
 </t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1140679</t>
+  </si>
+  <si>
     <t>Площадь Сахарова (названа в 1996 г.)</t>
   </si>
   <si>
     <t>59.943572, 30.297397</t>
-  </si>
-  <si>
-    <t>Площадь у здания законодательного собрания.</t>
   </si>
   <si>
     <t>В 1996 году площадь у Законодательного собрания названа в честь Сахарова — первого в СССР, кто открыто заговорил о правах человека.
 Связь с Сахаровым: В конце 1980-х здесь проходили митинги за демократию. Название площади символизирует связь науки и гражданской свободы, за которую боролся Сахаров.</t>
   </si>
   <si>
+    <t>До переименования
+До 1996 года площадь не имела официального названия и была частью Гражданского проспекта — одной из главных магистралей Калининского района.
+В 1970-х годах здесь началось массовое жилое строительство, и площадь стала формироваться как транспортный узел.
+Присвоение имени (1996)
+Решение о переименовании принято 2 июля 1996 года постановлением правительства Санкт-Петербурга. Это произошло в рамках кампании по увековечиванию памяти Сахарова после распада СССР.
+Выбор места связан с близостью Физико-технического института им. А.Ф. Иоффе, где работали коллеги Сахарова по ядерным исследованиям, а также с развитием района как научно-образовательного кластера.
+Архитектура и инфраструктура
+Площадь имеет кольцевую планировку с подземным пешеходным переходом, украшенным мозаичными панно на тему науки (установлены в 2000-х).
+Доминанта площади — бронзовый памятник Андрею Сахарову, открытый в 2003 году. Скульптура высотой 3,5 метра изображает учёного в раздумье, с книгой в руках. Автор — народный художник России Левон Лазарев.
+Рядом расположены:
+НИИ онкологии им. Петрова;
+Бизнес-центр «Гражданский»;
+Торговый комплекс «Гражданский рынок».
+Исторический и культурный контекст
+Переименование площади в 1990-е стало символом признания заслуг Сахарова не только как учёного, но и как борца за права человека. Однако это вызвало неоднозначную реакцию: часть жителей выступала против, считая, что имя диссидента не должно быть на карте города.
+В 2010-х годах активисты неоднократно предлагали установить на площади информационные стенды о жизни Сахарова, но проект не реализован.
+Современность
+Ежегодно 21 мая (день рождения Сахарова) у памятника собираются правозащитники, учёные и студенты.
+В 2021 году, к 100-летию Сахарова, прошла акция с возложением цветов и чтением его статей о свободе.
+Площадь остаётся местом споров: в 2022 году депутаты законодательного собрания Петербурга предлагали вернуть безымянное название, но инициатива не была поддержана.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/949674</t>
+  </si>
+  <si>
     <t>секретный объект, ныне НИИ "Радиевый институт"</t>
   </si>
   <si>
     <t>60.001648, 30.349191</t>
   </si>
   <si>
-    <t>Научный городок, где велись ядерные исследования.</t>
-  </si>
-  <si>
-    <t>Секретный научный городок, где с 1940-х велись ядерные исследования.
+    <t>Радиевый институт — старейший в России научно-исследовательский центр в области радиохимии, ядерной физики и радиационной экологии. Основан в 1922 году как Государственный радиевый институт (ГРИ) при активном участии академика В.И. Вернадского. В советское время институт был засекречен и играл ключевую роль в атомном проекте СССР, включая создание ядерного оружия.</t>
+  </si>
+  <si>
+    <t>Основание и ранние годы (1920–1930-е)
+Институт создан по инициативе В.И. Вернадского, который ещё в 1910 году предсказал стратегическое значение радиоактивных элементов. Первоначальная задача — изучение месторождений урана и радия для промышленности и медицины.
+В 1920-х годах здесь работали выдающиеся учёные: В.Г. Хлопин (основоположник советской радиохимии), Л.С. Коловрат-Червинский (исследователь радиоактивных руд), И.Е. Старик (пионер в области радиометрии).
+В 1930-е институт стал центром разработки методов выделения радия из отечественного сырья, что позволило СССР отказаться от импорта.
+Секретный период: Атомный проект (1940–1950-е)
+С 1943 года институт включён в советский атомный проект («Лаборатория № 2» под руководством И.В. Курчатова). Основные задачи:
+Получение чистого урана и плутония для первой атомной бомбы.
+Разработка технологий обогащения радиоактивных материалов.
+Создание радиохимических методов анализа.
+В 1949 году сотрудники института участвовали в подготовке испытаний первой советской атомной бомбы на Семипалатинском полигоне.
+Здание института и его лаборатории были строго засекречены, а территория охранялась НКВД.
+Послевоенные исследования
+После смерти Сталина (1953) институт продолжил работу над гражданскими проектами:
+Разработка радиофармацевтических препаратов для лечения рака.
+Исследования миграции радионуклидов в экосистемах (после аварии на ПО «Маяк» в 1957 году).
+В 1956 году институту присвоено имя В.Г. Хлопина, возглавлявшего его с 1939 по 1950 год.
+Современная эпоха
+С 1990-х годов институт сосредоточен на:
+Ядерной медицине: производство изотопов для диагностики (технеций-99m) и терапии (йод-131).
+Ликвидации последствий радиационных аварий (Чернобыль, Фукусима).
+Реабилитации загрязнённых территорий (например, в Ленинградской области).
+С 2010 года входит в состав Национального исследовательского центра «Курчатовский институт».
+Ключевые объекты и достижения
+Первая в СССР установка для получения плутония (1940-е) — сейчас музейный экспонат.
+Уникальная коллекция минералов урановых месторождений, собранная экспедициями 1920–1950-х.
+Радиохимическая лаборатория № 1 — где в 1947 году получили первые миллиграммы советского плутония.
+Архитектура и расположение
+Главное здание института (2-й Муринский проспект, 28) построено в 1930-х годах в стиле конструктивизма.
+На территории сохранились подземные бункеры и хранилища для радиоактивных материалов, ныне не используемые.
 Связь с Сахаровым: В 1947–1948 годах он участвовал здесь в разработках, которые привели к созданию советской водородной бомбы. Позже он назовёт эту работу "трагическим противоречием" своей жизни.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/2248432</t>
   </si>
   <si>
     <t>Дом журналиста</t>
@@ -3572,6 +3983,9 @@
 </t>
   </si>
   <si>
+    <t>https://pastvu.com/p/1930685</t>
+  </si>
+  <si>
     <t>Памятник "Жертвам политических репрессий"</t>
   </si>
   <si>
@@ -3583,17 +3997,34 @@
 </t>
   </si>
   <si>
+    <t>https://pastvu.com/p/823764</t>
+  </si>
+  <si>
     <t>Квартира академика Алфёрова</t>
   </si>
   <si>
     <t>59.953738, 30.332395</t>
   </si>
   <si>
-    <t>Дом на Аптекарском острове.</t>
-  </si>
-  <si>
-    <t>Дом на Аптекарском острове, где жил Жорес Алфёров — нобелевский лауреат и сторонник свободной науки.
-Связь с Сахаровым: Алфёров поддерживал его идеи, считая, что наука не должна служить только войне.</t>
+    <t>Квартира Жореса Ивановича Алфёрова (1930–2019), нобелевского лауреата по физике (2000 г.), находится в Санкт-Петербурге на улице Кантемировской, 12. Это пятиэтажный кирпичный дом сталинской постройки (1950-е гг.), расположенный вблизи Политехнического университета и Физико-технического института им. А.Ф. Иоффе (ФТИ), где Алфёров работал.</t>
+  </si>
+  <si>
+    <t>Жизнь Алфёрова в квартире
+Алфёров поселился в этой квартире в 1960-х годах, когда стал сотрудником ФТИ. Здесь он жил с супругой Тамарой Георгиевной и дочерью Ириной.
+В квартире учёный работал над ключевыми открытиями в области полупроводниковых гетероструктур, за которые получил Нобелевскую премию.
+Интерьер и атмосфера
+В квартире сохранились:
+1)Библиотека с книгами по физике, философии и истории.
+2)Нобелевская медаль и диплом (оригиналы хранятся в ФТИ, но копии выставлены дома).
+3)Фотографии с коллегами, включая академика Сахарова и Андрея Вознесенского.
+4)Рояль, на котором играла жена Алфёрова.
+Современный статус:
+После смерти Алфёрова (1 марта 2019 года) квартира осталась в собственности его семьи. Общественность и научное сообщество неоднократно предлагали создать здесь музей, но решение пока не принято.
+В 2021 году на фасаде дома установлена мемориальная доска с барельефом учёного и надписью: «Здесь жил и работал выдающийся физик, академик Жорес Иванович Алфёров».
+                                                                                                                                                                                                                                                                                          Связь с Сахаровым: Алфёров поддерживал его идеи, считая, что наука не должна служить только войне.</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/128965</t>
   </si>
   <si>
     <t>Публичная библиотека (где Сахаров изучал запрещённую литературу)</t>
@@ -3602,11 +4033,34 @@
     <t>59.933699, 30.335670</t>
   </si>
   <si>
-    <t>Одна из крупнейших библиотек мира.</t>
-  </si>
-  <si>
-    <t>Одна из крупнейших библиотек мира, где хранилась запрещённая литература.
-Связь с Сахаровым: В спецхране он изучал западные исследования о радиации, что повлияло на его борьбу против ядерных испытаний.</t>
+    <t>Российская национальная библиотека (бывшая Императорская публичная библиотека) — старейшая публичная библиотека России, основанная в 1795 году Екатериной II. Расположена на Невском проспекте и Московском проспекте Санкт-Петербурга. Её фонды насчитывают около 39 млн экземпляров, включая уникальные рукописи, редкие книги и запрещённую в СССР литературу.</t>
+  </si>
+  <si>
+    <t>Связь с Андреем Сахаровым
+Доступ к спецхрану
+Сахаров, хотя и работал в Москве и Сарове, посещал Ленинград в рамках научных командировок. Как академик АН СССР, он имел доступ к закрытым фондам крупнейших библиотек, включая РНБ.
+В спецхране РНБ он изучал:
+1)Западные научные журналы по ядерной физике, где обсуждались этические аспекты атомных исследований.
+2)Диссидентские тексты и эмигрантскую прессу (например, журнал «Континент», статьи Солженицына).
+3)Философские труды, запрещённые в СССР (Бердяев, Федотов), которые формировали его гуманистическую позицию.
+Контекст визитов
+В 1960–1970-х годах Сахаров неоднократно бывал в Ленинграде, где встречался с коллегами из Физико-технического института им. Иоффе. Посещение РНБ позволяло ему получать информацию, недоступную обычным гражданам.
+По свидетельствам биографов, именно в спецхранах библиотек Сахаров находил данные о масштабах сталинских репрессий, которые позже включал в свои публикации.
+История спецхрана РНБ
+Создание: В 1920-х годах в библиотеке начали формировать фонд «контрреволюционной» литературы. К 1930-м годам спецхран стал частью системы цензуры, куда попадали книги, изъятые из общего доступа.
+Коллекция:
+1)Труды Троцкого, Бухарина, Зиновьева.
+2)Религиозная литература (Библии, Коран, издания Свидетелей Иеговы).
+3)Зарубежные издания о СССР, критикующие социализм.
+4)Самиздат и тамиздат (например, «Архипелаг ГУЛАГ» Солженицына).
+Доступ: Запросы согласовывались с КГБ. Учёные, включая Сахарова, получали разрешение под предлогом «научной необходимости».
+Как спецхран повлиял на Сахарова
+Чтение западных материалов о правах человека и экологических катастрофах (например, о последствиях ядерных испытаний) укрепило его позицию о необходимости разоружения.
+В РНБ Сахаров мог ознакомиться с текстами Хельсинкских соглашений (1975), которые позже цитировал в своих выступлениях.
+Изучение религиозной философии в спецхране способствовало формированию его этических принципов, отражённых в эссе «Тревога и надежда» (1978).</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/2230392</t>
   </si>
   <si>
     <t>Памятная доска на здании Физтеха (установлена в 2014 г.)</t>
@@ -3628,12 +4082,25 @@
     <t>60.006799, 30.368701</t>
   </si>
   <si>
-    <t>Бывший особняк Матильды Кшесинской.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бывший особняк Кшесинской, теперь — музей, где есть экспозиция о диссидентах.
-Связь с Сахаровым: Здесь хранятся его "самиздатовские" статьи и письма, показывающие эволюцию от физика-ядерщика до борца за права человека.
-</t>
+    <t xml:space="preserve">Музей политической истории России расположен в центре Санкт-Петербурга в двух исторических особняках — Кшесинской и Бранта. Основан в 1919 году как Музей Революции, он стал первым в стране учреждением, посвящённым политическим процессам. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание и ранние годы (1919–1940-е)
+Музей создан по декрету большевиков в 1919 году для пропаганды идей революции. Первоначально размещался в Зимнем дворце, а в 1957 году переехал в особняк балерины Матильды Кшесинской — символ роскоши и «буржуазного прошлого», конфискованный после 1917 года.
+В 1920-х годах здесь собирали реликвии Гражданской войны: знамёна, оружие, фотографии. В 1930-е экспозиция стала инструентом сталинской пропаганды, прославляя ВКП(б) и вождей.
+Советский период (1950–1980-е)
+В 1955 году музей переименован в Государственный музей Великой Октябрьской социалистической революции.
+В 1957 году к нему присоединили Музей С.М. Кирова, посвящённый жизни ленинградского партийного лидера.
+Экспозиции 1960–1980-х акцентировали «торжество социализма», но после 1985 года начали включать материалы о репрессиях и диссидентах.
+Постсоветская трансформация
+В 1991 году музей получил современное название и новую концепцию — объективное отражение политической истории, включая её тёмные стороны.
+В 1990-х открыты выставки о ГУЛАГе, диссидентском движении и «холодной войне».
+В 2013 году создана экспозиция «Россия. XXI век: Вызовы времени и приоритеты развития», посвящённая событиям 1991–2010-х.
+                                                                                                                                                                                                                                                                               Связь с Сахаровым: Здесь хранятся его "самиздатовские" статьи и письма, показывающие эволюцию от физика-ядерщика до борца за права человека.
+</t>
+  </si>
+  <si>
+    <t>https://pastvu.com/p/233173</t>
   </si>
   <si>
     <t>map_link</t>
@@ -3722,19 +4189,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3742,219 +4202,80 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3964,191 +4285,10 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4156,268 +4296,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -4432,77 +4337,42 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="40% — Акцент6" xfId="1" builtinId="51"/>
-    <cellStyle name="Акцент4" xfId="2" builtinId="41"/>
-    <cellStyle name="20% — Акцент6" xfId="3" builtinId="50"/>
-    <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
-    <cellStyle name="40% — Акцент5" xfId="5" builtinId="47"/>
-    <cellStyle name="Акцент3" xfId="6" builtinId="37"/>
-    <cellStyle name="20% — Акцент5" xfId="7" builtinId="46"/>
-    <cellStyle name="Акцент2" xfId="8" builtinId="33"/>
-    <cellStyle name="20% — Акцент4" xfId="9" builtinId="42"/>
-    <cellStyle name="Заголовок 2" xfId="10" builtinId="17"/>
-    <cellStyle name="60% — Акцент3" xfId="11" builtinId="40"/>
-    <cellStyle name="Акцент1" xfId="12" builtinId="29"/>
-    <cellStyle name="20% — Акцент3" xfId="13" builtinId="38"/>
-    <cellStyle name="Заголовок 1" xfId="14" builtinId="16"/>
-    <cellStyle name="Денежный" xfId="15" builtinId="4"/>
-    <cellStyle name="60% — Акцент2" xfId="16" builtinId="36"/>
-    <cellStyle name="Ввод" xfId="17" builtinId="20"/>
-    <cellStyle name="Акцент6" xfId="18" builtinId="49"/>
-    <cellStyle name="Процент" xfId="19" builtinId="5"/>
-    <cellStyle name="40% — Акцент2" xfId="20" builtinId="35"/>
-    <cellStyle name="20% — Акцент2" xfId="21" builtinId="34"/>
-    <cellStyle name="Запятая" xfId="22" builtinId="3"/>
-    <cellStyle name="Акцент5" xfId="23" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="40% — Акцент1" xfId="25" builtinId="31"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="27" builtinId="9"/>
-    <cellStyle name="Связанная ячейка" xfId="28" builtinId="24"/>
-    <cellStyle name="Проверить ячейку" xfId="29" builtinId="23"/>
-    <cellStyle name="60% — Акцент5" xfId="30" builtinId="48"/>
-    <cellStyle name="Заголовок 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Заголовок 3" xfId="32" builtinId="18"/>
-    <cellStyle name="60% — Акцент4" xfId="33" builtinId="44"/>
-    <cellStyle name="Плохой" xfId="34" builtinId="27"/>
-    <cellStyle name="Вычисление" xfId="35" builtinId="22"/>
-    <cellStyle name="60% — Акцент6" xfId="36" builtinId="52"/>
-    <cellStyle name="Денежный [0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Пояснительный текст" xfId="38" builtinId="53"/>
-    <cellStyle name="40% — Акцент3" xfId="39" builtinId="39"/>
-    <cellStyle name="Заголовок" xfId="40" builtinId="15"/>
-    <cellStyle name="Запятая [0]" xfId="41" builtinId="6"/>
-    <cellStyle name="Итого" xfId="42" builtinId="25"/>
-    <cellStyle name="Предупреждающий текст" xfId="43" builtinId="11"/>
-    <cellStyle name="Примечание" xfId="44" builtinId="10"/>
-    <cellStyle name="60% — Акцент1" xfId="45" builtinId="32"/>
-    <cellStyle name="Хороший" xfId="46" builtinId="26"/>
-    <cellStyle name="40% — Акцент4" xfId="47" builtinId="43"/>
-    <cellStyle name="Вывод" xfId="48" builtinId="21"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4732,29 +4602,31 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="B120" zoomScale="67" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="9.16296296296296" customWidth="1"/>
-    <col min="2" max="2" width="75.8296296296296" customWidth="1"/>
-    <col min="3" max="3" width="20.162962962963" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="75.875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="82" customWidth="1"/>
-    <col min="5" max="5" width="103.162962962963" customWidth="1"/>
-    <col min="6" max="6" width="94.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="103.125" customWidth="1"/>
+    <col min="6" max="6" width="117" customWidth="1"/>
+    <col min="7" max="7" width="123" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4773,1854 +4645,2480 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="132" spans="1:5">
-      <c r="A2" s="2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="204">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="186.95">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="204">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="186.95">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="186.95">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135.94999999999999">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135.94999999999999">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135.94999999999999">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="119.1">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="132" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="119.1">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="119.1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="119.1">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="170.1">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="132" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="119.1">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="119.1">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135.94999999999999">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="102">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" ht="99" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="237.95">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="135.94999999999999">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="183" customHeight="1">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="115.5" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="119.1">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="408.95" customHeight="1">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="237.95">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="306">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" ht="99" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="264.95" customHeight="1">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="153">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="255">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="221.1">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" ht="82.5" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="288.95">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="272.10000000000002">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="288.95">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="288.95">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" ht="82.5" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="170.1">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="186.95">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="204">
+      <c r="A42" s="4">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="186.95">
+      <c r="A43" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" ht="82.5" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="170.1">
+      <c r="A44" s="4">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B44" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="135.94999999999999">
+      <c r="A45" s="4">
         <v>39</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="204">
+      <c r="A46" s="4">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="B46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="186.95">
+      <c r="A47" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" ht="82.5" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="204">
+      <c r="A48" s="4">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="186.95">
+      <c r="A49" s="4">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="B49" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="186.95">
+      <c r="A50" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" ht="66" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B50" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="170.1">
+      <c r="A51" s="4">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B51" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="170.1">
+      <c r="A52" s="4">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="66" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" ht="99" spans="1:5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" ht="66" spans="1:5">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" ht="82.5" spans="1:5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" ht="99" spans="1:5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" ht="66" spans="1:5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="165" spans="1:5">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" ht="82.5" spans="1:5">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" ht="66" spans="1:5">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" ht="82.5" spans="1:5">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" ht="409" customHeight="1" spans="1:5">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" ht="181.5" spans="1:5">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" ht="181.5" spans="1:5">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" ht="265" customHeight="1" spans="1:5">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" ht="113.25" spans="1:5">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" ht="180" spans="1:5">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" ht="148.5" spans="1:5">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" ht="214.5" spans="1:5">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" ht="181.5" spans="1:5">
-      <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" ht="229.5" spans="1:5">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" ht="214.5" spans="1:5">
-      <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" ht="99" spans="1:5">
-      <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" ht="130.5" spans="1:5">
-      <c r="A41" s="1">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" ht="115.5" spans="1:5">
-      <c r="A42" s="1">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" ht="115.5" spans="1:5">
-      <c r="A43" s="1">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" ht="99" spans="1:5">
-      <c r="A44" s="1">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" ht="99" spans="1:5">
-      <c r="A45" s="1">
-        <v>39</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" ht="132" spans="1:5">
-      <c r="A46" s="1">
-        <v>40</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" ht="132" spans="1:5">
-      <c r="A47" s="1">
-        <v>41</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" ht="132" spans="1:5">
-      <c r="A48" s="1">
-        <v>42</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" ht="115.5" spans="1:5">
-      <c r="A49" s="1">
-        <v>43</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" ht="114" spans="1:5">
-      <c r="A50" s="1">
-        <v>44</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" ht="99" spans="1:5">
-      <c r="A51" s="1">
-        <v>45</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" ht="99" spans="1:5">
-      <c r="A52" s="1">
-        <v>46</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" ht="132" spans="1:5">
+      <c r="B52" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" ht="204">
       <c r="A56">
         <v>47</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" ht="113.25" spans="1:5">
+      <c r="B56" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="170.1">
       <c r="A57">
         <v>48</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" ht="148.5" spans="1:5">
+      <c r="B57" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="221.1">
       <c r="A58">
         <v>49</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" ht="99" spans="1:5">
+      <c r="B58" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="153">
       <c r="A59">
         <v>50</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" ht="262.5" spans="1:5">
+      <c r="B59" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="372">
       <c r="A60">
         <v>51</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" ht="214.5" spans="1:5">
+      <c r="B60" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="288.95">
       <c r="A61">
         <v>52</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" ht="115.5" spans="1:5">
+      <c r="B61" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="170.1">
       <c r="A62">
         <v>53</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" ht="114" spans="1:5">
+      <c r="B62" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="153">
       <c r="A63">
         <v>54</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" ht="99" spans="1:5">
+      <c r="B63" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="135.94999999999999">
       <c r="A64">
         <v>55</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" ht="99" spans="1:5">
+      <c r="B64" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="153">
       <c r="A65">
         <v>56</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" ht="82.5" spans="1:5">
+      <c r="B65" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="119.1">
       <c r="A66">
         <v>57</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" ht="310.5" spans="1:5">
+      <c r="B66" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" ht="352.5">
       <c r="A70">
         <v>58</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>216</v>
+        <v>327</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" ht="256.5" spans="1:5">
+        <v>330</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="293.25">
       <c r="A71">
         <v>59</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>220</v>
+        <v>332</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" ht="256.5" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="308.25">
       <c r="A72">
         <v>60</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>224</v>
+        <v>337</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" ht="310.5" spans="1:5">
+        <v>339</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="352.5">
       <c r="A73">
         <v>61</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>228</v>
+      <c r="B73" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" ht="324" spans="1:5">
+        <v>345</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="352.5">
       <c r="A74">
         <v>62</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>232</v>
+      <c r="B74" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="75" ht="351" spans="1:5">
+        <v>350</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="382.5">
       <c r="A75">
         <v>63</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>236</v>
+      <c r="B75" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" ht="351" spans="1:5">
+        <v>355</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="382.5">
       <c r="A76">
         <v>64</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>240</v>
+      <c r="B76" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>241</v>
+        <v>359</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" ht="337.5" spans="1:5">
+        <v>360</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="382.5">
       <c r="A77">
         <v>65</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>245</v>
+        <v>362</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" ht="364.5" spans="1:5">
+        <v>365</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="409.6">
       <c r="A78">
         <v>66</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>249</v>
+      <c r="B78" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" ht="409.5" spans="1:5">
+        <v>370</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="409.6">
       <c r="A79">
         <v>67</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" ht="405" spans="1:5">
+      <c r="B79" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="409.6">
       <c r="A80">
         <v>68</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>257</v>
+      <c r="B80" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" ht="364.5" spans="1:5">
+        <v>380</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="396">
       <c r="A81">
         <v>69</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>261</v>
+      <c r="B81" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" ht="409.5" spans="1:5">
+        <v>385</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="409.6">
       <c r="A82">
         <v>70</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>265</v>
+      <c r="B82" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+        <v>390</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="16"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="16"/>
-    </row>
-    <row r="86" ht="49.5" spans="1:6">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="1:6" ht="61.5">
       <c r="A86">
         <v>71</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>268</v>
+        <v>392</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F86" s="16"/>
-    </row>
-    <row r="87" ht="49.5" spans="1:6">
+        <v>394</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="77.25">
       <c r="A87">
         <v>72</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" ht="49.5" spans="1:6">
+      <c r="B87" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="77.25">
       <c r="A88">
         <v>73</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F88" s="16"/>
-    </row>
-    <row r="89" ht="49.5" spans="1:6">
+      <c r="B88" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="61.5">
       <c r="A89">
         <v>74</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" ht="49.5" spans="1:6">
+      <c r="B89" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="77.25">
       <c r="A90">
         <v>75</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F90" s="16"/>
-    </row>
-    <row r="91" ht="271.5" spans="1:6">
+      <c r="B90" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="277.5">
       <c r="A91">
         <v>76</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" ht="172.5" spans="1:6">
+      <c r="B91" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="159">
       <c r="A92">
         <v>77</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="93" ht="141.75" spans="1:6">
+      <c r="B92" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="144.75">
       <c r="A93">
         <v>78</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F93" s="16"/>
-    </row>
-    <row r="94" ht="220.5" spans="1:6">
+      <c r="B93" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="201.75">
       <c r="A94">
         <v>79</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F94" s="16"/>
-    </row>
-    <row r="95" ht="402.75" spans="1:5">
+      <c r="B94" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="375.75">
       <c r="A95">
         <v>80</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" ht="201.75" spans="1:5">
+      <c r="B95" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75">
+      <c r="A96" s="3"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="201.75">
       <c r="A99">
         <v>81</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" ht="220.5" spans="1:5">
+      <c r="B99" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="231">
       <c r="A100">
         <v>82</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="101" ht="99" spans="1:5">
+      <c r="B100" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="92.25">
       <c r="A101">
         <v>83</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" ht="110.25" spans="1:5">
+      <c r="B101" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="101.25">
       <c r="A102">
         <v>84</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="103" ht="99" spans="1:5">
+      <c r="B102" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="108">
       <c r="A103">
         <v>85</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" ht="146.25" spans="1:5">
+      <c r="B103" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="153.75">
       <c r="A104">
         <v>86</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="105" ht="33" spans="1:5">
+      <c r="B104" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="46.5">
       <c r="A105">
         <v>87</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="106" ht="66" spans="1:5">
+      <c r="B105" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="77.25">
       <c r="A106">
         <v>88</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="107" ht="139.5" spans="1:5">
+      <c r="B106" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="409.6">
       <c r="A107">
         <v>89</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" ht="95.25" spans="1:5">
+      <c r="B107" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="409.6">
       <c r="A108">
         <v>90</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" ht="33" spans="1:5">
+      <c r="B108" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="409.6">
       <c r="A112">
         <v>91</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="113" ht="49.5" spans="1:5">
+      <c r="B112" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="409.6">
       <c r="A113">
         <v>92</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="114" ht="80.25" spans="1:5">
+      <c r="B113" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="153.75">
       <c r="A114">
         <v>93</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="115" ht="33" spans="1:5">
+      <c r="B114" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="409.6">
       <c r="A115">
         <v>94</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="116" ht="49.5" spans="1:5">
+      <c r="B115" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="409.6">
       <c r="A116">
         <v>95</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="117" ht="63.75" spans="1:5">
+      <c r="B116" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="77.25">
       <c r="A117">
         <v>96</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" ht="63.75" spans="1:5">
+      <c r="B117" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="77.25">
       <c r="A118">
         <v>97</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119" ht="33" spans="1:5">
+      <c r="B118" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="409.6">
       <c r="A119">
         <v>98</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="120" ht="33" spans="1:5">
+      <c r="B119" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="409.6">
       <c r="A120">
         <v>99</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" ht="33" spans="1:5">
+      <c r="B120" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="46.5">
       <c r="A121">
         <v>100</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="122" ht="63.75" spans="1:5">
+      <c r="B121" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="409.6">
       <c r="A122">
         <v>101</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>389</v>
+      <c r="B122" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{3D247157-6E57-F945-896C-30D13A2A62A8}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{5BB6E791-4EE7-A648-82EB-76F6B2265A96}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{326EB444-3964-5A4E-9B81-53918510496B}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{41C2F6D3-DD81-D046-82B0-AF4131174B02}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{F873D1C8-4456-9249-9DE8-C91C86EA2479}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{2805AABF-152A-BB4B-97B1-E4A16B83C441}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{5C857B9C-5137-AE4C-A1FD-DB39CDADB22D}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{D941CF0A-5D04-614C-A7A7-8C34B78DE2F9}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{7F217834-66E3-0D40-B73B-914DEC8BD7D4}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{D5CA0958-404E-1541-92EE-B2B9A2CDCADF}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{B73FA8AC-D454-3745-AD87-886EC0D71BBA}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{C30F7473-659D-B44B-8E77-53FAFEE935DD}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{1FAFAD4D-00D0-6441-91B6-21AA24183AD8}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{84C80230-0297-1F4F-80F6-563BBCCBBD1B}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{B8FE2067-A6F4-E643-8F4E-F91C2D328BE5}"/>
+    <hyperlink ref="G9" r:id="rId16" xr:uid="{EBA02A8A-A96E-F54F-A865-3F8B8A7B3CF1}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{F9749130-D819-9942-8266-E96E2E65FF70}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{410CE524-67EA-C74E-ABA6-BA19D226E210}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{B135C65D-7BEB-E245-A466-4C97A3896686}"/>
+    <hyperlink ref="G11" r:id="rId20" xr:uid="{CA109891-6513-5543-9422-D0853222B82D}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{A7311CA7-364B-974B-A791-05C72E23B0F1}"/>
+    <hyperlink ref="G12" r:id="rId22" xr:uid="{7B0590E2-28D8-A143-B0B1-A40CD2A5200A}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{BF8FD31A-3618-F841-8A61-4C801B411BCF}"/>
+    <hyperlink ref="G13" r:id="rId24" xr:uid="{14DB6083-6E97-194B-ACBF-3F6931F24E34}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{FDFBF99F-47CF-CD42-8F8B-8E8FC16EF113}"/>
+    <hyperlink ref="G14" r:id="rId26" xr:uid="{B2681066-8E50-E14D-9D49-CEFFEA334BE6}"/>
+    <hyperlink ref="F15" r:id="rId27" xr:uid="{44185C8F-47A4-1046-87A0-FC1D681364C6}"/>
+    <hyperlink ref="G15" r:id="rId28" xr:uid="{592A98D8-B4FE-104E-AE52-A5F626BF0A1D}"/>
+    <hyperlink ref="F16" r:id="rId29" xr:uid="{640048F6-6FF3-D641-AE07-274FEADAECFB}"/>
+    <hyperlink ref="G16" r:id="rId30" xr:uid="{AB64A51B-363C-CE4A-9879-809B0DF396CB}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{D38B0CF9-55FE-1145-A4F2-A8A34390AD51}"/>
+    <hyperlink ref="G17" r:id="rId32" xr:uid="{EB8206A1-B148-C545-8407-0B7C451BA77A}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{49A74307-868A-6147-8F77-54D9A824E8F1}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{9774AB7F-5EB2-4640-9EC4-397447287D80}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{57C09461-C1A2-1D4E-BDDA-BD87A51619E8}"/>
+    <hyperlink ref="G19" r:id="rId36" xr:uid="{06A680A6-04E0-7D49-831F-E2E154B84772}"/>
+    <hyperlink ref="F20" r:id="rId37" xr:uid="{7BF7CEB8-6737-9A43-AFA1-C0BC22B3D478}"/>
+    <hyperlink ref="G20" r:id="rId38" xr:uid="{7BF8B9B1-C631-0847-890F-77634D3EE2BB}"/>
+    <hyperlink ref="F21" r:id="rId39" xr:uid="{1B1296E0-876F-1349-83ED-FB43E74F071A}"/>
+    <hyperlink ref="G21" r:id="rId40" xr:uid="{E35D6A52-4881-7C48-BD5D-3A2F80ABA0E2}"/>
+    <hyperlink ref="F22" r:id="rId41" xr:uid="{B905D30A-F791-C448-AAE3-04A114154FAC}"/>
+    <hyperlink ref="G22" r:id="rId42" xr:uid="{4C600485-C564-A64F-A344-B4FD67819DFF}"/>
+    <hyperlink ref="F26" r:id="rId43" xr:uid="{9560A89C-E675-474A-B64F-C618901095DC}"/>
+    <hyperlink ref="G26" r:id="rId44" xr:uid="{2AD6C541-0EEC-9A48-A7B0-A105377A9245}"/>
+    <hyperlink ref="F27" r:id="rId45" xr:uid="{DCE57D4D-7AA5-C040-BBBA-D51E9EF48B27}"/>
+    <hyperlink ref="G27" r:id="rId46" xr:uid="{A84769F3-3EDD-7148-8B1A-84B6D8D1A951}"/>
+    <hyperlink ref="F28" r:id="rId47" xr:uid="{079EA6AD-A8CD-204F-9646-D1E19D0D0ED8}"/>
+    <hyperlink ref="G28" r:id="rId48" xr:uid="{03CFC3CC-6CBB-7B4D-AE17-96A254823ED2}"/>
+    <hyperlink ref="F29" r:id="rId49" xr:uid="{ED0C6DFF-B496-EE42-B329-43EA3AC44CF3}"/>
+    <hyperlink ref="G29" r:id="rId50" xr:uid="{13CE4C70-5244-DC48-B298-8FD08F443AAA}"/>
+    <hyperlink ref="F30" r:id="rId51" xr:uid="{7108E2B7-475E-2F49-9A0B-43C2781B1F3E}"/>
+    <hyperlink ref="F31" r:id="rId52" xr:uid="{C2052C07-3CA3-4445-BB68-5911E955922D}"/>
+    <hyperlink ref="F32" r:id="rId53" xr:uid="{7E438F1B-A743-194C-B80B-D9A148D88469}"/>
+    <hyperlink ref="G32" r:id="rId54" xr:uid="{FB5D2E18-55B8-4740-8899-9B82E906BE37}"/>
+    <hyperlink ref="F33" r:id="rId55" xr:uid="{187A127B-DCB2-2143-9AF4-33E0D5554EA2}"/>
+    <hyperlink ref="G33" r:id="rId56" xr:uid="{9B852320-A579-7B4B-A209-1FC2DDBC3A02}"/>
+    <hyperlink ref="F34" r:id="rId57" xr:uid="{DC7BAD33-D51B-104C-AF2D-088B0C10A928}"/>
+    <hyperlink ref="F35" r:id="rId58" xr:uid="{708DA7AE-943F-814F-8FE2-73E6114CE26A}"/>
+    <hyperlink ref="G35" r:id="rId59" xr:uid="{7F07CF40-D9E6-6543-9031-ABD50F698388}"/>
+    <hyperlink ref="F36" r:id="rId60" xr:uid="{389A95E7-DEB0-BF47-8772-127BDE6159C0}"/>
+    <hyperlink ref="F37" r:id="rId61" xr:uid="{B03B455C-7CB3-6E41-A49D-1A1E5CD5FF97}"/>
+    <hyperlink ref="G37" r:id="rId62" xr:uid="{DD3F3AF6-D9D2-8F4C-8762-22791A93D2BA}"/>
+    <hyperlink ref="F41" r:id="rId63" xr:uid="{B5FF3686-EEB3-C746-9CF9-EB42893916C2}"/>
+    <hyperlink ref="G41" r:id="rId64" xr:uid="{EC22419E-3C1E-354F-A5FB-6EF86033C0AE}"/>
+    <hyperlink ref="F42" r:id="rId65" xr:uid="{1E23DAF8-F0DC-1E47-8299-B7C9C4FE4866}"/>
+    <hyperlink ref="G42" r:id="rId66" xr:uid="{7225A5C5-145E-AC43-8ACF-C641F070E4F9}"/>
+    <hyperlink ref="F43" r:id="rId67" xr:uid="{1EC7D318-EFBB-2C47-93DB-034C0E47AE58}"/>
+    <hyperlink ref="G43" r:id="rId68" xr:uid="{F464B7B8-7657-8444-B4F3-19B0A2896D0E}"/>
+    <hyperlink ref="F44" r:id="rId69" xr:uid="{9E753B62-88FA-CE43-91DE-01EBC86CEA61}"/>
+    <hyperlink ref="G44" r:id="rId70" xr:uid="{0FC77630-A4C5-0141-A566-D8B37619E8A6}"/>
+    <hyperlink ref="F45" r:id="rId71" xr:uid="{6A62A1FB-7E5A-1A49-9735-52F4A85ECFDF}"/>
+    <hyperlink ref="G45" r:id="rId72" xr:uid="{4D159F73-47FA-5945-B259-16241743593C}"/>
+    <hyperlink ref="F46" r:id="rId73" xr:uid="{B2639915-CAD3-A847-98EA-C468DDFB68CE}"/>
+    <hyperlink ref="G46" r:id="rId74" xr:uid="{2B2563FC-C225-C847-90B0-E40D33439318}"/>
+    <hyperlink ref="F47" r:id="rId75" xr:uid="{6A73BCB0-92BF-7945-8423-22DFA6027013}"/>
+    <hyperlink ref="G47" r:id="rId76" xr:uid="{380BFC9D-481D-2942-AB4B-4EFB220D6A76}"/>
+    <hyperlink ref="F48" r:id="rId77" xr:uid="{F6438890-C7F0-EA44-9822-0533C6B342BF}"/>
+    <hyperlink ref="G48" r:id="rId78" xr:uid="{A11F5124-AF8D-7940-BDBB-9DBBE9435C12}"/>
+    <hyperlink ref="F49" r:id="rId79" xr:uid="{2CC5E057-A825-9A4F-89E3-2B43E62C0C9C}"/>
+    <hyperlink ref="G49" r:id="rId80" xr:uid="{82ADA6A1-6A15-A34E-9B16-09ABB67AFEA8}"/>
+    <hyperlink ref="F50" r:id="rId81" xr:uid="{2E9D4534-9146-F349-8D68-848797D2C3F9}"/>
+    <hyperlink ref="G50" r:id="rId82" xr:uid="{CD9570A2-92AF-F840-924B-3DF2678B3ED3}"/>
+    <hyperlink ref="F51" r:id="rId83" xr:uid="{B9BD7834-D3A9-FC4D-BEB2-EAEC89AC7341}"/>
+    <hyperlink ref="G51" r:id="rId84" xr:uid="{3B1AE46C-6AFB-A442-B570-47E06179549A}"/>
+    <hyperlink ref="F52" r:id="rId85" xr:uid="{CA3AAA8E-E284-974C-8F94-73C7338E666A}"/>
+    <hyperlink ref="G52" r:id="rId86" xr:uid="{C4058AFB-1833-C547-9A8F-C4F829AE9CBC}"/>
+    <hyperlink ref="F56" r:id="rId87" xr:uid="{12B4DB3A-151D-694D-9057-D2CD5CF3B6E6}"/>
+    <hyperlink ref="F57" r:id="rId88" xr:uid="{EC0052AB-85E8-C549-85ED-6755A185B074}"/>
+    <hyperlink ref="F58" r:id="rId89" xr:uid="{47907927-CDBF-3340-8679-C3E0CBC54488}"/>
+    <hyperlink ref="G58" r:id="rId90" xr:uid="{FA5C675D-EF90-F849-9B0D-9F5BB318F7AB}"/>
+    <hyperlink ref="F59" r:id="rId91" xr:uid="{B6A0E700-5394-CC41-9A58-37B81080FBAC}"/>
+    <hyperlink ref="G59" r:id="rId92" xr:uid="{B1C4DCA8-CEFE-1F43-B98D-B447E873550F}"/>
+    <hyperlink ref="F60" r:id="rId93" xr:uid="{065D1E48-067D-7844-8C13-382E5C1C08D7}"/>
+    <hyperlink ref="F61" r:id="rId94" xr:uid="{1E9B86AC-566B-9D40-92A1-05307552B298}"/>
+    <hyperlink ref="G61" r:id="rId95" xr:uid="{6FCD4D98-143A-E948-B62A-49879179EF7B}"/>
+    <hyperlink ref="F62" r:id="rId96" xr:uid="{695FCF99-B8EE-7F4E-9AAB-330B8F96E1F5}"/>
+    <hyperlink ref="G62" r:id="rId97" xr:uid="{BB1C4EBE-29E4-9543-9968-6AE1A49CAA3D}"/>
+    <hyperlink ref="G63" r:id="rId98" xr:uid="{ACEA476C-C998-7443-A166-237C970D8F9B}"/>
+    <hyperlink ref="F63" r:id="rId99" xr:uid="{F4902B4E-D2BC-3242-8E2F-5FEE213B24F9}"/>
+    <hyperlink ref="F64" r:id="rId100" xr:uid="{F0E95D39-78F7-0542-B1F5-871C08BA54AE}"/>
+    <hyperlink ref="G64" r:id="rId101" xr:uid="{BD2087A7-B7DA-924C-A5AB-FCAA68D0FD93}"/>
+    <hyperlink ref="F65" r:id="rId102" xr:uid="{8AFFCCB7-7AAB-3D43-B768-A96AE8E2FDF0}"/>
+    <hyperlink ref="G65" r:id="rId103" xr:uid="{DD9B4DF5-2464-B947-8587-147CF03F22C5}"/>
+    <hyperlink ref="F66" r:id="rId104" xr:uid="{64FE4DEB-649B-694E-A27A-D41601B29A32}"/>
+    <hyperlink ref="G66" r:id="rId105" xr:uid="{EB0EF827-74E5-6F4E-8285-ABB1AA30F0B4}"/>
+    <hyperlink ref="F70" r:id="rId106" xr:uid="{3BB5FA14-DF10-49D5-9A64-3931AE5E24D9}"/>
+    <hyperlink ref="F72" r:id="rId107" xr:uid="{0C024D2C-D7E8-4431-ADBA-4E103C51ECDF}"/>
+    <hyperlink ref="F73" r:id="rId108" xr:uid="{7CB1992D-BCAD-4DCF-B158-5ECA17792E60}"/>
+    <hyperlink ref="F71" r:id="rId109" xr:uid="{8172DBD1-B8EC-4203-9505-2F914DC11C40}"/>
+    <hyperlink ref="F74" r:id="rId110" xr:uid="{E288C9AE-6119-4776-B95D-B08C8810E1EC}"/>
+    <hyperlink ref="F75" r:id="rId111" xr:uid="{3BD6F209-C17C-4869-9CFE-BEC405803AFB}"/>
+    <hyperlink ref="F76" r:id="rId112" xr:uid="{AD265816-0A00-43DD-8971-389F2935C808}"/>
+    <hyperlink ref="F77" r:id="rId113" xr:uid="{798A047E-EE59-4BF2-91D5-FF81AAECC97F}"/>
+    <hyperlink ref="F78" r:id="rId114" xr:uid="{10265A5D-F0B8-43E6-B20C-0360AE9C6D96}"/>
+    <hyperlink ref="F80" r:id="rId115" xr:uid="{57720DE8-9D71-48FE-90B1-2421D0011865}"/>
+    <hyperlink ref="F81" r:id="rId116" xr:uid="{A60C1B57-E469-40FF-9469-E5BB35A485C8}"/>
+    <hyperlink ref="F82" r:id="rId117" xr:uid="{AF400A3C-2985-4338-A2B9-8CE6177C5C73}"/>
+    <hyperlink ref="F79" r:id="rId118" xr:uid="{8DC6EFBC-50A5-4D3E-B778-4DEFA2E98F84}"/>
+    <hyperlink ref="F86" r:id="rId119" xr:uid="{86DEC3BB-A345-46DB-95F2-C4F64D752885}"/>
+    <hyperlink ref="F87" r:id="rId120" xr:uid="{E0434D25-E23F-4078-BED1-C30C446CE911}"/>
+    <hyperlink ref="F88" r:id="rId121" xr:uid="{5E74358F-D2F1-401E-9325-7E6808CDC684}"/>
+    <hyperlink ref="F89" r:id="rId122" xr:uid="{BB7CF4E7-E6D6-4111-AE8C-879C4F515ABA}"/>
+    <hyperlink ref="F90" r:id="rId123" xr:uid="{736522C7-5B52-4BF7-A732-7A4C59FB5D41}"/>
+    <hyperlink ref="F91" r:id="rId124" xr:uid="{B8C6FF99-9930-4F61-A697-747DFC87D905}"/>
+    <hyperlink ref="F92" r:id="rId125" xr:uid="{B50C257F-CAE9-4EC3-9CCA-864560EFF253}"/>
+    <hyperlink ref="F93" r:id="rId126" xr:uid="{927AE8B4-37C4-4100-8B9F-998E72E59F47}"/>
+    <hyperlink ref="F94" r:id="rId127" xr:uid="{3CC19BAC-C686-4AC7-B016-113348599B3B}"/>
+    <hyperlink ref="F95" r:id="rId128" xr:uid="{4912BF92-431D-458B-AA85-5176BF141503}"/>
+    <hyperlink ref="F99" r:id="rId129" xr:uid="{FC4FAFDA-ADC4-4BA9-8EAF-C35FFCFE4D18}"/>
+    <hyperlink ref="F100" r:id="rId130" xr:uid="{072AFE1D-2B6D-4494-A3F7-8A0EC278D715}"/>
+    <hyperlink ref="F101" r:id="rId131" xr:uid="{F5FE7885-F1F9-4C94-8983-44F52F42F411}"/>
+    <hyperlink ref="F102" r:id="rId132" xr:uid="{88DED949-4E9F-43A0-8A2B-8ABB117007CE}"/>
+    <hyperlink ref="F103" r:id="rId133" xr:uid="{3CD86ED8-318E-4989-9CCA-C0308701E40A}"/>
+    <hyperlink ref="F104" r:id="rId134" xr:uid="{9B036681-395C-45FD-A2CF-CF7FE3C6397F}"/>
+    <hyperlink ref="F105" r:id="rId135" xr:uid="{52C5307E-B9E7-42C9-8A9A-B7D3F6F7A027}"/>
+    <hyperlink ref="F106" r:id="rId136" xr:uid="{D029E4F2-DB94-4BA2-BC68-5ADE625E2322}"/>
+    <hyperlink ref="F107" r:id="rId137" xr:uid="{2D719260-DB2E-48DA-8F42-3B872A057073}"/>
+    <hyperlink ref="F112" r:id="rId138" xr:uid="{B038AB3D-E8A4-43CF-A766-BD188E83835B}"/>
+    <hyperlink ref="F108" r:id="rId139" xr:uid="{AEDBA410-B788-4577-B14B-FE78B2CC218F}"/>
+    <hyperlink ref="F113" r:id="rId140" xr:uid="{DC53C5A3-6812-423A-A617-650AB86FB1DC}"/>
+    <hyperlink ref="F114" r:id="rId141" xr:uid="{D2BC593B-6BB9-49A1-AC6B-70DF4FEFD74C}"/>
+    <hyperlink ref="F115" r:id="rId142" xr:uid="{6C968A05-47B7-4E94-BF13-8A9E0081317B}"/>
+    <hyperlink ref="F116" r:id="rId143" xr:uid="{EA5265B1-0196-4118-AC70-0E8E96858B14}"/>
+    <hyperlink ref="F117" r:id="rId144" xr:uid="{DA505730-F2C4-4A1B-A758-99F0B62D40D8}"/>
+    <hyperlink ref="F118" r:id="rId145" xr:uid="{F806F016-C485-4226-AF4E-BDCA78517A2A}"/>
+    <hyperlink ref="F119" r:id="rId146" xr:uid="{18930619-0746-4969-83F4-C578007B73A2}"/>
+    <hyperlink ref="F120" r:id="rId147" xr:uid="{B0257119-A848-409C-8F8D-4149265737EF}"/>
+    <hyperlink ref="F121" r:id="rId148" xr:uid="{5D61348C-208E-4F46-985C-8885C7EC1F06}"/>
+    <hyperlink ref="F122" r:id="rId149" xr:uid="{34520DAF-7103-446C-BA79-0F46BC273125}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="8.82962962962963" customWidth="1"/>
-    <col min="2" max="2" width="47.5037037037037" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="41.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6634,162 +7132,160 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>545</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="189" customHeight="1" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="189" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" ht="99" spans="1:4">
-      <c r="A3" s="1">
+      <c r="B2" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="170.1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" ht="130.5" spans="1:4">
-      <c r="A4" s="1">
+      <c r="B3" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="204">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" ht="132" spans="1:4">
-      <c r="A5" s="1">
+      <c r="B4" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="204">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" ht="82.5" spans="1:4">
-      <c r="A6" s="1">
+      <c r="B5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135.94999999999999">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" ht="82.5" spans="1:4">
-      <c r="A7" s="1">
+      <c r="B6" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135.94999999999999">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" ht="99" spans="1:4">
-      <c r="A8" s="1">
+      <c r="B7" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135.94999999999999">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="1">
+      <c r="B8" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135.94999999999999">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>414</v>
+      <c r="B9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://yandex.ru/maps/-/CHffBP4Y"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://yandex.ru/maps/-/CHf7Y8PB"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://yandex.ru/maps/-/CHfK4PmI"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://yandex.ru/maps/-/CHfoE4-Q"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://yandex.ru/maps/-/CHfoQZ2S"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://yandex.ru/maps/-/CHfcn48s"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://yandex.ru/maps/-/CHfgRWZx"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://yandex.ru/maps/-/CHfkURJ7"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="15.8296296296296" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s">
-        <v>416</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7594,7 +8090,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>